--- a/SNOW.xlsx
+++ b/SNOW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Documents\GitHub\martinshkreli-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96C4A27-AC5E-44B1-B5AD-8A635B639D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5235533E-2E6C-4905-9EF6-5ADCECE67CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11385" yWindow="2055" windowWidth="17760" windowHeight="13500" activeTab="1" xr2:uid="{E26B75FC-9989-4D2B-A8FA-900EA2F68291}"/>
+    <workbookView xWindow="33900" yWindow="0" windowWidth="17805" windowHeight="21705" activeTab="1" xr2:uid="{E26B75FC-9989-4D2B-A8FA-900EA2F68291}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="78">
   <si>
     <t>Price</t>
   </si>
@@ -56,9 +56,6 @@
     <t>EV</t>
   </si>
   <si>
-    <t>Q122</t>
-  </si>
-  <si>
     <t>Main</t>
   </si>
   <si>
@@ -195,13 +192,98 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>FQ124</t>
+  </si>
+  <si>
+    <t>FQ224</t>
+  </si>
+  <si>
+    <t>Seq Rev Growth</t>
+  </si>
+  <si>
+    <t>FY21</t>
+  </si>
+  <si>
+    <t>FY22</t>
+  </si>
+  <si>
+    <t>FY23</t>
+  </si>
+  <si>
+    <t>FY24</t>
+  </si>
+  <si>
+    <t>FY25</t>
+  </si>
+  <si>
+    <t>FY26</t>
+  </si>
+  <si>
+    <t>FY27</t>
+  </si>
+  <si>
+    <t>FY28</t>
+  </si>
+  <si>
+    <t>FY29</t>
+  </si>
+  <si>
+    <t>FY30</t>
+  </si>
+  <si>
+    <t>FY31</t>
+  </si>
+  <si>
+    <t>Growth Rate</t>
+  </si>
+  <si>
+    <t>Terminal Rate</t>
+  </si>
+  <si>
+    <t>Discount Rate</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Share Price</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Market Cap</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>FQ324</t>
+  </si>
+  <si>
+    <t>FQ424</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Current</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="5">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -222,6 +304,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -231,7 +324,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -239,12 +332,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -275,10 +386,32 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
+    <cellStyle name="Currency" xfId="4" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -305,7 +438,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -648,7 +781,7 @@
   <dimension ref="L2:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -658,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>141.30000000000001</v>
+        <v>188.2</v>
       </c>
     </row>
     <row r="3" spans="12:14" x14ac:dyDescent="0.2">
@@ -666,10 +799,10 @@
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>314.36099999999999</v>
+        <v>325.89999999999998</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="12:14" x14ac:dyDescent="0.2">
@@ -678,7 +811,7 @@
       </c>
       <c r="M4" s="2">
         <f>+M2*M3</f>
-        <v>44419.209300000002</v>
+        <v>61334.37999999999</v>
       </c>
     </row>
     <row r="5" spans="12:14" x14ac:dyDescent="0.2">
@@ -686,11 +819,10 @@
         <v>3</v>
       </c>
       <c r="M5" s="2">
-        <f>1063.401+2751.679+1212.378</f>
-        <v>5027.4579999999996</v>
+        <v>4569</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="12:14" x14ac:dyDescent="0.2">
@@ -698,10 +830,10 @@
         <v>4</v>
       </c>
       <c r="M6" s="2">
-        <v>0</v>
+        <v>1887</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="12:14" x14ac:dyDescent="0.2">
@@ -710,7 +842,7 @@
       </c>
       <c r="M7" s="2">
         <f>+M4-M5+M6</f>
-        <v>39391.751300000004</v>
+        <v>58652.37999999999</v>
       </c>
     </row>
   </sheetData>
@@ -720,13 +852,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B950461E-5EFB-45DD-9161-EF94163D814D}">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:CU44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -740,14 +872,18 @@
     <col min="10" max="12" width="9.140625" style="3"/>
     <col min="13" max="13" width="10.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.140625" style="3"/>
+    <col min="15" max="16" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:99" x14ac:dyDescent="0.2">
       <c r="D2" s="5">
         <v>44043</v>
       </c>
@@ -781,48 +917,99 @@
       <c r="N2" s="5">
         <v>44957</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="14">
+        <v>45046</v>
+      </c>
+      <c r="P2" s="14">
+        <v>45138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:99" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:99" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10">
@@ -849,13 +1036,357 @@
       <c r="K4" s="10">
         <v>422.37099999999998</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-    </row>
-    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L4" s="10">
+        <v>497.24799999999999</v>
+      </c>
+      <c r="M4" s="10">
+        <v>557.02800000000002</v>
+      </c>
+      <c r="N4" s="9">
+        <f>2065.659-SUM(K4:M4)</f>
+        <v>589.01200000000017</v>
+      </c>
+      <c r="O4" s="10">
+        <v>623.59900000000005</v>
+      </c>
+      <c r="P4" s="9">
+        <f>L4*(1+$P$20)</f>
+        <v>661.33983999999998</v>
+      </c>
+      <c r="Q4" s="9">
+        <f>M4*(1+$P$20)</f>
+        <v>740.84724000000006</v>
+      </c>
+      <c r="R4" s="9">
+        <f>N4*(1+$P$20)</f>
+        <v>783.3859600000003</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="T4" s="9">
+        <v>592.04899999999998</v>
+      </c>
+      <c r="U4" s="9">
+        <f>SUM($G$4:$J$4)</f>
+        <v>1219.3269999999998</v>
+      </c>
+      <c r="V4" s="9">
+        <f>SUM($K$4:$N$4)</f>
+        <v>2065.6590000000001</v>
+      </c>
+      <c r="W4" s="9">
+        <f>SUM(O4:R4)</f>
+        <v>2809.1720400000004</v>
+      </c>
+      <c r="X4" s="9">
+        <f t="shared" ref="W4:AE4" si="0">W4*(1+$S$21)</f>
+        <v>3651.9236520000004</v>
+      </c>
+      <c r="Y4" s="9">
+        <f t="shared" si="0"/>
+        <v>4747.500747600001</v>
+      </c>
+      <c r="Z4" s="9">
+        <f t="shared" si="0"/>
+        <v>6171.7509718800011</v>
+      </c>
+      <c r="AA4" s="9">
+        <f t="shared" si="0"/>
+        <v>8023.2762634440014</v>
+      </c>
+      <c r="AB4" s="9">
+        <f t="shared" si="0"/>
+        <v>10430.259142477202</v>
+      </c>
+      <c r="AC4" s="9">
+        <f t="shared" si="0"/>
+        <v>13559.336885220362</v>
+      </c>
+      <c r="AD4" s="9">
+        <f t="shared" si="0"/>
+        <v>17627.137950786473</v>
+      </c>
+      <c r="AE4" s="9">
+        <f t="shared" si="0"/>
+        <v>22915.279336022417</v>
+      </c>
+      <c r="AF4" s="9">
+        <f t="shared" ref="AF4:CQ4" si="1">AE4*(1+$S$22)</f>
+        <v>23144.43212938264</v>
+      </c>
+      <c r="AG4" s="9">
+        <f t="shared" si="1"/>
+        <v>23375.876450676467</v>
+      </c>
+      <c r="AH4" s="9">
+        <f t="shared" si="1"/>
+        <v>23609.635215183233</v>
+      </c>
+      <c r="AI4" s="9">
+        <f t="shared" si="1"/>
+        <v>23845.731567335064</v>
+      </c>
+      <c r="AJ4" s="9">
+        <f t="shared" si="1"/>
+        <v>24084.188883008414</v>
+      </c>
+      <c r="AK4" s="9">
+        <f t="shared" si="1"/>
+        <v>24325.030771838497</v>
+      </c>
+      <c r="AL4" s="9">
+        <f t="shared" si="1"/>
+        <v>24568.281079556884</v>
+      </c>
+      <c r="AM4" s="9">
+        <f t="shared" si="1"/>
+        <v>24813.963890352454</v>
+      </c>
+      <c r="AN4" s="9">
+        <f t="shared" si="1"/>
+        <v>25062.103529255979</v>
+      </c>
+      <c r="AO4" s="9">
+        <f t="shared" si="1"/>
+        <v>25312.724564548538</v>
+      </c>
+      <c r="AP4" s="9">
+        <f t="shared" si="1"/>
+        <v>25565.851810194024</v>
+      </c>
+      <c r="AQ4" s="9">
+        <f t="shared" si="1"/>
+        <v>25821.510328295964</v>
+      </c>
+      <c r="AR4" s="9">
+        <f t="shared" si="1"/>
+        <v>26079.725431578925</v>
+      </c>
+      <c r="AS4" s="9">
+        <f t="shared" si="1"/>
+        <v>26340.522685894714</v>
+      </c>
+      <c r="AT4" s="9">
+        <f t="shared" si="1"/>
+        <v>26603.927912753661</v>
+      </c>
+      <c r="AU4" s="9">
+        <f t="shared" si="1"/>
+        <v>26869.967191881198</v>
+      </c>
+      <c r="AV4" s="9">
+        <f t="shared" si="1"/>
+        <v>27138.666863800012</v>
+      </c>
+      <c r="AW4" s="9">
+        <f t="shared" si="1"/>
+        <v>27410.053532438011</v>
+      </c>
+      <c r="AX4" s="9">
+        <f t="shared" si="1"/>
+        <v>27684.154067762393</v>
+      </c>
+      <c r="AY4" s="9">
+        <f t="shared" si="1"/>
+        <v>27960.995608440018</v>
+      </c>
+      <c r="AZ4" s="9">
+        <f t="shared" si="1"/>
+        <v>28240.60556452442</v>
+      </c>
+      <c r="BA4" s="9">
+        <f t="shared" si="1"/>
+        <v>28523.011620169666</v>
+      </c>
+      <c r="BB4" s="9">
+        <f t="shared" si="1"/>
+        <v>28808.241736371361</v>
+      </c>
+      <c r="BC4" s="9">
+        <f t="shared" si="1"/>
+        <v>29096.324153735077</v>
+      </c>
+      <c r="BD4" s="9">
+        <f t="shared" si="1"/>
+        <v>29387.287395272429</v>
+      </c>
+      <c r="BE4" s="9">
+        <f t="shared" si="1"/>
+        <v>29681.160269225154</v>
+      </c>
+      <c r="BF4" s="9">
+        <f t="shared" si="1"/>
+        <v>29977.971871917405</v>
+      </c>
+      <c r="BG4" s="9">
+        <f t="shared" si="1"/>
+        <v>30277.751590636581</v>
+      </c>
+      <c r="BH4" s="9">
+        <f t="shared" si="1"/>
+        <v>30580.529106542948</v>
+      </c>
+      <c r="BI4" s="9">
+        <f t="shared" si="1"/>
+        <v>30886.334397608378</v>
+      </c>
+      <c r="BJ4" s="9">
+        <f t="shared" si="1"/>
+        <v>31195.197741584463</v>
+      </c>
+      <c r="BK4" s="9">
+        <f t="shared" si="1"/>
+        <v>31507.149719000307</v>
+      </c>
+      <c r="BL4" s="9">
+        <f t="shared" si="1"/>
+        <v>31822.221216190308</v>
+      </c>
+      <c r="BM4" s="9">
+        <f t="shared" si="1"/>
+        <v>32140.44342835221</v>
+      </c>
+      <c r="BN4" s="9">
+        <f t="shared" si="1"/>
+        <v>32461.847862635732</v>
+      </c>
+      <c r="BO4" s="9">
+        <f t="shared" si="1"/>
+        <v>32786.466341262087</v>
+      </c>
+      <c r="BP4" s="9">
+        <f t="shared" si="1"/>
+        <v>33114.331004674706</v>
+      </c>
+      <c r="BQ4" s="9">
+        <f t="shared" si="1"/>
+        <v>33445.474314721454</v>
+      </c>
+      <c r="BR4" s="9">
+        <f t="shared" si="1"/>
+        <v>33779.92905786867</v>
+      </c>
+      <c r="BS4" s="9">
+        <f t="shared" si="1"/>
+        <v>34117.728348447359</v>
+      </c>
+      <c r="BT4" s="9">
+        <f t="shared" si="1"/>
+        <v>34458.905631931833</v>
+      </c>
+      <c r="BU4" s="9">
+        <f t="shared" si="1"/>
+        <v>34803.49468825115</v>
+      </c>
+      <c r="BV4" s="9">
+        <f t="shared" si="1"/>
+        <v>35151.529635133666</v>
+      </c>
+      <c r="BW4" s="9">
+        <f t="shared" si="1"/>
+        <v>35503.044931485005</v>
+      </c>
+      <c r="BX4" s="9">
+        <f t="shared" si="1"/>
+        <v>35858.075380799855</v>
+      </c>
+      <c r="BY4" s="9">
+        <f t="shared" si="1"/>
+        <v>36216.656134607852</v>
+      </c>
+      <c r="BZ4" s="9">
+        <f t="shared" si="1"/>
+        <v>36578.822695953932</v>
+      </c>
+      <c r="CA4" s="9">
+        <f t="shared" si="1"/>
+        <v>36944.610922913474</v>
+      </c>
+      <c r="CB4" s="9">
+        <f t="shared" si="1"/>
+        <v>37314.057032142613</v>
+      </c>
+      <c r="CC4" s="9">
+        <f t="shared" si="1"/>
+        <v>37687.197602464039</v>
+      </c>
+      <c r="CD4" s="9">
+        <f t="shared" si="1"/>
+        <v>38064.069578488678</v>
+      </c>
+      <c r="CE4" s="9">
+        <f t="shared" si="1"/>
+        <v>38444.710274273566</v>
+      </c>
+      <c r="CF4" s="9">
+        <f t="shared" si="1"/>
+        <v>38829.157377016301</v>
+      </c>
+      <c r="CG4" s="9">
+        <f t="shared" si="1"/>
+        <v>39217.448950786464</v>
+      </c>
+      <c r="CH4" s="9">
+        <f t="shared" si="1"/>
+        <v>39609.62344029433</v>
+      </c>
+      <c r="CI4" s="9">
+        <f t="shared" si="1"/>
+        <v>40005.719674697277</v>
+      </c>
+      <c r="CJ4" s="9">
+        <f t="shared" si="1"/>
+        <v>40405.77687144425</v>
+      </c>
+      <c r="CK4" s="9">
+        <f t="shared" si="1"/>
+        <v>40809.83464015869</v>
+      </c>
+      <c r="CL4" s="9">
+        <f t="shared" si="1"/>
+        <v>41217.932986560278</v>
+      </c>
+      <c r="CM4" s="9">
+        <f t="shared" si="1"/>
+        <v>41630.112316425882</v>
+      </c>
+      <c r="CN4" s="9">
+        <f t="shared" si="1"/>
+        <v>42046.413439590142</v>
+      </c>
+      <c r="CO4" s="9">
+        <f t="shared" si="1"/>
+        <v>42466.877573986043</v>
+      </c>
+      <c r="CP4" s="9">
+        <f t="shared" si="1"/>
+        <v>42891.546349725904</v>
+      </c>
+      <c r="CQ4" s="9">
+        <f t="shared" si="1"/>
+        <v>43320.461813223163</v>
+      </c>
+      <c r="CR4" s="9">
+        <f t="shared" ref="CR4:CU4" si="2">CQ4*(1+$S$22)</f>
+        <v>43753.666431355392</v>
+      </c>
+      <c r="CS4" s="9">
+        <f t="shared" si="2"/>
+        <v>44191.203095668949</v>
+      </c>
+      <c r="CT4" s="9">
+        <f t="shared" si="2"/>
+        <v>44633.115126625642</v>
+      </c>
+      <c r="CU4" s="9">
+        <f t="shared" si="2"/>
+        <v>45079.446277891897</v>
+      </c>
+    </row>
+    <row r="5" spans="1:99" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6">
@@ -882,54 +1413,86 @@
       <c r="K5" s="6">
         <v>147.93</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L5" s="6">
+        <v>173.232</v>
+      </c>
+      <c r="M5" s="6">
+        <v>190.721</v>
+      </c>
+      <c r="N5" s="2">
+        <f>717.54-SUM(K5:M5)</f>
+        <v>205.65699999999993</v>
+      </c>
+      <c r="O5" s="6">
+        <v>209.41399999999999</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="AB5" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:99" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6">
-        <f>+D4-D5</f>
+        <f t="shared" ref="D6:K6" si="3">+D4-D5</f>
         <v>82.699000000000012</v>
       </c>
       <c r="E6" s="6">
-        <f>+E4-E5</f>
+        <f t="shared" si="3"/>
         <v>92.942999999999998</v>
       </c>
       <c r="F6" s="6">
-        <f>+F4-F5</f>
+        <f t="shared" si="3"/>
         <v>107.56100000000001</v>
       </c>
       <c r="G6" s="6">
-        <f>+G4-G5</f>
+        <f t="shared" si="3"/>
         <v>131.56799999999998</v>
       </c>
       <c r="H6" s="6">
-        <f>+H4-H5</f>
+        <f t="shared" si="3"/>
         <v>166.077</v>
       </c>
       <c r="I6" s="6">
-        <f>+I4-I5</f>
+        <f t="shared" si="3"/>
         <v>213.65499999999997</v>
       </c>
       <c r="J6" s="6">
-        <f>+J4-J5</f>
+        <f t="shared" si="3"/>
         <v>249.59399999999999</v>
       </c>
       <c r="K6" s="6">
-        <f>+K4-K5</f>
+        <f t="shared" si="3"/>
         <v>274.44099999999997</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L6" s="6">
+        <f>L4-L5</f>
+        <v>324.01599999999996</v>
+      </c>
+      <c r="M6" s="6">
+        <f>M4-M5</f>
+        <v>366.30700000000002</v>
+      </c>
+      <c r="N6" s="6">
+        <f>N4-N5</f>
+        <v>383.35500000000025</v>
+      </c>
+      <c r="O6" s="6">
+        <f>O4-O5</f>
+        <v>414.18500000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:99" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6">
@@ -956,13 +1519,87 @@
       <c r="K7" s="6">
         <v>243.91200000000001</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L7" s="6">
+        <v>274.46499999999997</v>
+      </c>
+      <c r="M7" s="6">
+        <v>284.47699999999998</v>
+      </c>
+      <c r="N7" s="2">
+        <f>1106.507-SUM(K7:M7)</f>
+        <v>303.65300000000013</v>
+      </c>
+      <c r="O7" s="6">
+        <v>331.55799999999999</v>
+      </c>
+      <c r="U7" s="23">
+        <f t="shared" ref="U7:AJ7" si="4">(U4-T4)/T4</f>
+        <v>1.0595035208234451</v>
+      </c>
+      <c r="V7" s="23">
+        <f t="shared" si="4"/>
+        <v>0.69409764566847165</v>
+      </c>
+      <c r="W7" s="23">
+        <f t="shared" si="4"/>
+        <v>0.35993987390948856</v>
+      </c>
+      <c r="X7" s="23">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="Y7" s="23">
+        <f t="shared" si="4"/>
+        <v>0.3000000000000001</v>
+      </c>
+      <c r="Z7" s="23">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="AA7" s="23">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="AB7" s="23">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="AC7" s="23">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="AD7" s="23">
+        <f t="shared" si="4"/>
+        <v>0.30000000000000016</v>
+      </c>
+      <c r="AE7" s="23">
+        <f t="shared" si="4"/>
+        <v>0.3000000000000001</v>
+      </c>
+      <c r="AF7" s="23">
+        <f t="shared" si="4"/>
+        <v>9.999999999999943E-3</v>
+      </c>
+      <c r="AG7" s="23">
+        <f t="shared" si="4"/>
+        <v>1.0000000000000056E-2</v>
+      </c>
+      <c r="AH7" s="23">
+        <f t="shared" si="4"/>
+        <v>1.0000000000000021E-2</v>
+      </c>
+      <c r="AI7" s="23">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999655E-3</v>
+      </c>
+      <c r="AJ7" s="23">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999534E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:99" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6">
@@ -989,13 +1626,23 @@
       <c r="K8" s="6">
         <v>150.798</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L8" s="6">
+        <v>183.74799999999999</v>
+      </c>
+      <c r="M8" s="6">
+        <v>211.387</v>
+      </c>
+      <c r="N8" s="2">
+        <f>788.058-SUM(K8:M8)</f>
+        <v>242.125</v>
+      </c>
+      <c r="O8" s="6">
+        <v>277.41199999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:99" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6">
@@ -1022,95 +1669,139 @@
       <c r="K9" s="6">
         <v>68.497</v>
       </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L9" s="6">
+        <v>73.355000000000004</v>
+      </c>
+      <c r="M9" s="6">
+        <v>76.462000000000003</v>
+      </c>
+      <c r="N9" s="2">
+        <f>295.821-SUM(K9:M9)</f>
+        <v>77.507000000000005</v>
+      </c>
+      <c r="O9" s="6">
+        <v>78.453000000000003</v>
+      </c>
+      <c r="T9" s="2">
+        <f>(W4-SUM(O4:P4))-SUM(Q4:R4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:99" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6">
-        <f>SUM(D7:D9)</f>
+        <f t="shared" ref="D10:N10" si="5">SUM(D7:D9)</f>
         <v>160.38200000000001</v>
       </c>
       <c r="E10" s="6">
-        <f>SUM(E7:E9)</f>
+        <f t="shared" si="5"/>
         <v>262.39699999999999</v>
       </c>
       <c r="F10" s="6">
-        <f>SUM(F7:F9)</f>
+        <f t="shared" si="5"/>
         <v>307.95800000000003</v>
       </c>
       <c r="G10" s="6">
-        <f>SUM(G7:G9)</f>
+        <f t="shared" si="5"/>
         <v>337.16300000000001</v>
       </c>
       <c r="H10" s="6">
-        <f>SUM(H7:H9)</f>
+        <f t="shared" si="5"/>
         <v>366.21800000000002</v>
       </c>
       <c r="I10" s="6">
-        <f>SUM(I7:I9)</f>
+        <f t="shared" si="5"/>
         <v>370.92599999999999</v>
       </c>
       <c r="J10" s="6">
-        <f>SUM(J7:J9)</f>
+        <f t="shared" si="5"/>
         <v>401.62300000000005</v>
       </c>
       <c r="K10" s="6">
-        <f>SUM(K7:K9)</f>
+        <f t="shared" si="5"/>
         <v>463.20700000000005</v>
       </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L10" s="6">
+        <f t="shared" si="5"/>
+        <v>531.56799999999998</v>
+      </c>
+      <c r="M10" s="6">
+        <f t="shared" si="5"/>
+        <v>572.32600000000002</v>
+      </c>
+      <c r="N10" s="6">
+        <f t="shared" si="5"/>
+        <v>623.28500000000008</v>
+      </c>
+      <c r="O10" s="6">
+        <f>SUM(O7:O9)</f>
+        <v>687.423</v>
+      </c>
+      <c r="T10" s="2">
+        <f>SUM(O4:R4)</f>
+        <v>2809.1720400000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:99" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6">
-        <f>+D6-D10</f>
+        <f t="shared" ref="D11:N11" si="6">+D6-D10</f>
         <v>-77.682999999999993</v>
       </c>
       <c r="E11" s="6">
-        <f>+E6-E10</f>
+        <f t="shared" si="6"/>
         <v>-169.45400000000001</v>
       </c>
       <c r="F11" s="6">
-        <f>+F6-F10</f>
+        <f t="shared" si="6"/>
         <v>-200.39700000000002</v>
       </c>
       <c r="G11" s="6">
-        <f>+G6-G10</f>
+        <f t="shared" si="6"/>
         <v>-205.59500000000003</v>
       </c>
       <c r="H11" s="6">
-        <f>+H6-H10</f>
+        <f t="shared" si="6"/>
         <v>-200.14100000000002</v>
       </c>
       <c r="I11" s="6">
-        <f>+I6-I10</f>
+        <f t="shared" si="6"/>
         <v>-157.27100000000002</v>
       </c>
       <c r="J11" s="6">
-        <f>+J6-J10</f>
+        <f t="shared" si="6"/>
         <v>-152.02900000000005</v>
       </c>
       <c r="K11" s="6">
-        <f>+K6-K10</f>
+        <f t="shared" si="6"/>
         <v>-188.76600000000008</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L11" s="6">
+        <f t="shared" si="6"/>
+        <v>-207.55200000000002</v>
+      </c>
+      <c r="M11" s="6">
+        <f t="shared" si="6"/>
+        <v>-206.01900000000001</v>
+      </c>
+      <c r="N11" s="6">
+        <f t="shared" si="6"/>
+        <v>-239.92999999999984</v>
+      </c>
+      <c r="O11" s="6">
+        <f>+O6-O10</f>
+        <v>-273.23799999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:99" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6">
@@ -1142,54 +1833,80 @@
         <f>4.759-8.481</f>
         <v>-3.7219999999999995</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L12" s="6">
+        <f>11.692-22.92</f>
+        <v>-11.228000000000002</v>
+      </c>
+      <c r="M12" s="6">
+        <f>21.857-13.271</f>
+        <v>8.5859999999999985</v>
+      </c>
+      <c r="N12" s="2">
+        <f>73.839-47.565-SUM(K12:M12)</f>
+        <v>32.638000000000005</v>
+      </c>
+      <c r="O12" s="6">
+        <f>43.131-2.562</f>
+        <v>40.569000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:99" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6">
-        <f>+D11+D12</f>
+        <f t="shared" ref="D13:N13" si="7">+D11+D12</f>
         <v>-75.994</v>
       </c>
       <c r="E13" s="6">
-        <f>+E11+E12</f>
+        <f t="shared" si="7"/>
         <v>-168.45600000000002</v>
       </c>
       <c r="F13" s="6">
-        <f>+F11+F12</f>
+        <f t="shared" si="7"/>
         <v>-197.59300000000002</v>
       </c>
       <c r="G13" s="6">
-        <f>+G11+G12</f>
+        <f t="shared" si="7"/>
         <v>-203.47100000000003</v>
       </c>
       <c r="H13" s="6">
-        <f>+H11+H12</f>
+        <f t="shared" si="7"/>
         <v>-197.95100000000002</v>
       </c>
       <c r="I13" s="6">
-        <f>+I11+I12</f>
+        <f t="shared" si="7"/>
         <v>-153.67700000000002</v>
       </c>
       <c r="J13" s="6">
-        <f>+J11+J12</f>
+        <f t="shared" si="7"/>
         <v>-149.68700000000004</v>
       </c>
       <c r="K13" s="6">
-        <f>+K11+K12</f>
+        <f t="shared" si="7"/>
         <v>-192.48800000000008</v>
       </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L13" s="6">
+        <f t="shared" si="7"/>
+        <v>-218.78000000000003</v>
+      </c>
+      <c r="M13" s="6">
+        <f t="shared" si="7"/>
+        <v>-197.43299999999999</v>
+      </c>
+      <c r="N13" s="6">
+        <f t="shared" si="7"/>
+        <v>-207.29199999999983</v>
+      </c>
+      <c r="O13" s="6">
+        <f>+O11+O12</f>
+        <v>-232.66899999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:99" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6">
@@ -1216,89 +1933,128 @@
       <c r="K14" s="6">
         <v>-26.693999999999999</v>
       </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L14" s="6">
+        <v>3.8460000000000001</v>
+      </c>
+      <c r="M14" s="6">
+        <v>4.0090000000000003</v>
+      </c>
+      <c r="N14" s="2">
+        <f>-18.467-SUM(K14:M14)</f>
+        <v>0.37199999999999989</v>
+      </c>
+      <c r="O14" s="6">
+        <v>-6.6050000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:99" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6">
-        <f>+D13-D14</f>
+        <f t="shared" ref="D15:N15" si="8">+D13-D14</f>
         <v>-76.525000000000006</v>
       </c>
       <c r="E15" s="6">
-        <f>+E13-E14</f>
+        <f t="shared" si="8"/>
         <v>-168.88900000000001</v>
       </c>
       <c r="F15" s="6">
-        <f>+F13-F14</f>
+        <f t="shared" si="8"/>
         <v>-198.93500000000003</v>
       </c>
       <c r="G15" s="6">
-        <f>+G13-G14</f>
+        <f t="shared" si="8"/>
         <v>-203.22000000000003</v>
       </c>
       <c r="H15" s="6">
-        <f>+H13-H14</f>
+        <f t="shared" si="8"/>
         <v>-198.46500000000003</v>
       </c>
       <c r="I15" s="6">
-        <f>+I13-I14</f>
+        <f t="shared" si="8"/>
         <v>-154.85600000000002</v>
       </c>
       <c r="J15" s="6">
-        <f>+J13-J14</f>
+        <f t="shared" si="8"/>
         <v>-151.23300000000003</v>
       </c>
       <c r="K15" s="6">
-        <f>+K13-K14</f>
+        <f t="shared" si="8"/>
         <v>-165.7940000000001</v>
       </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L15" s="6">
+        <f t="shared" si="8"/>
+        <v>-222.62600000000003</v>
+      </c>
+      <c r="M15" s="6">
+        <f t="shared" si="8"/>
+        <v>-201.44200000000001</v>
+      </c>
+      <c r="N15" s="6">
+        <f t="shared" si="8"/>
+        <v>-207.66399999999982</v>
+      </c>
+      <c r="O15" s="6">
+        <f>+O13-O14</f>
+        <v>-226.06399999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:99" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="7">
-        <f>+D15/D17</f>
+        <f t="shared" ref="D16:N16" si="9">+D15/D17</f>
         <v>-1.2913291780742517</v>
       </c>
       <c r="E16" s="7">
-        <f>+E15/E17</f>
+        <f t="shared" si="9"/>
         <v>-1.0121101563988826</v>
       </c>
       <c r="F16" s="7">
-        <f>+F15/F17</f>
+        <f t="shared" si="9"/>
         <v>-0.70017512244406388</v>
       </c>
       <c r="G16" s="7">
-        <f>+G15/G17</f>
+        <f t="shared" si="9"/>
         <v>-0.69742540822139709</v>
       </c>
       <c r="H16" s="7">
-        <f>+H15/H17</f>
+        <f t="shared" si="9"/>
         <v>-0.666622779365454</v>
       </c>
       <c r="I16" s="7">
-        <f>+I15/I17</f>
+        <f t="shared" si="9"/>
         <v>-0.51106463212189535</v>
       </c>
       <c r="J16" s="7">
-        <f>+J15/J17</f>
+        <f t="shared" si="9"/>
         <v>-0.48991318468714745</v>
       </c>
       <c r="K16" s="7">
-        <f>+K15/K17</f>
+        <f t="shared" si="9"/>
         <v>-0.52740002735708347</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L16" s="7">
+        <f t="shared" si="9"/>
+        <v>-0.69929889808893198</v>
+      </c>
+      <c r="M16" s="7">
+        <f t="shared" si="9"/>
+        <v>-0.62924078904212288</v>
+      </c>
+      <c r="N16" s="7">
+        <f t="shared" si="9"/>
+        <v>-0.65153578263734135</v>
+      </c>
+      <c r="O16" s="7">
+        <f>+O15/O17</f>
+        <v>-0.69739046202920174</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
@@ -1327,99 +2083,203 @@
       <c r="K17" s="6">
         <v>314.36099999999999</v>
       </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="19" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="9" t="s">
+      <c r="L17" s="6">
+        <v>318.35599999999999</v>
+      </c>
+      <c r="M17" s="6">
+        <v>320.13499999999999</v>
+      </c>
+      <c r="N17" s="2">
+        <v>318.73</v>
+      </c>
+      <c r="O17" s="6">
+        <v>324.15699999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B19" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15">
+        <f t="shared" ref="E19:R19" si="10">(E4-D4)/D4</f>
+        <v>0.19887340868977418</v>
+      </c>
+      <c r="F19" s="15">
+        <f t="shared" si="10"/>
+        <v>0.19321029419134972</v>
+      </c>
+      <c r="G19" s="15">
+        <f t="shared" si="10"/>
+        <v>0.20186910981020126</v>
+      </c>
+      <c r="H19" s="15">
+        <f t="shared" si="10"/>
+        <v>0.18908411018985294</v>
+      </c>
+      <c r="I19" s="15">
+        <f t="shared" si="10"/>
+        <v>0.22866810189641365</v>
+      </c>
+      <c r="J19" s="15">
+        <f t="shared" si="10"/>
+        <v>0.14750882816401109</v>
+      </c>
+      <c r="K19" s="15">
+        <f t="shared" si="10"/>
+        <v>0.10057221177046903</v>
+      </c>
+      <c r="L19" s="15">
+        <f t="shared" si="10"/>
+        <v>0.17727779606080912</v>
+      </c>
+      <c r="M19" s="15">
+        <f t="shared" si="10"/>
+        <v>0.12022170023811062</v>
+      </c>
+      <c r="N19" s="15">
+        <f t="shared" si="10"/>
+        <v>5.7419016638302116E-2</v>
+      </c>
+      <c r="O19" s="15">
+        <f t="shared" si="10"/>
+        <v>5.8720365629222948E-2</v>
+      </c>
+      <c r="P19" s="15">
+        <f t="shared" si="10"/>
+        <v>6.0521007891289003E-2</v>
+      </c>
+      <c r="Q19" s="15">
+        <f t="shared" si="10"/>
+        <v>0.12022170023811067</v>
+      </c>
+      <c r="R19" s="15">
+        <f t="shared" si="10"/>
+        <v>5.7419016638302164E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12">
+        <f t="shared" ref="H20:N20" si="11">+H4/D4-1</f>
+        <v>1.0443726764054224</v>
+      </c>
+      <c r="I20" s="12">
+        <f t="shared" si="11"/>
+        <v>1.0951799228186236</v>
+      </c>
+      <c r="J20" s="12">
+        <f t="shared" si="11"/>
+        <v>1.0149318772477884</v>
+      </c>
+      <c r="K20" s="12">
+        <f t="shared" si="11"/>
+        <v>0.84510776973011703</v>
+      </c>
+      <c r="L20" s="12">
+        <f t="shared" si="11"/>
+        <v>0.8267878529599777</v>
+      </c>
+      <c r="M20" s="12">
+        <f t="shared" si="11"/>
+        <v>0.66554937941221337</v>
+      </c>
+      <c r="N20" s="12">
+        <f t="shared" si="11"/>
+        <v>0.53478870376836407</v>
+      </c>
+      <c r="O20" s="12">
+        <f>+O4/J4-1</f>
+        <v>0.62491205761724355</v>
+      </c>
+      <c r="P20" s="24">
+        <v>0.33</v>
+      </c>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12">
-        <f>+H4/D4-1</f>
-        <v>1.0443726764054224</v>
-      </c>
-      <c r="I19" s="12">
-        <f>+I4/E4-1</f>
-        <v>1.0951799228186236</v>
-      </c>
-      <c r="J19" s="12">
-        <f>+J4/F4-1</f>
-        <v>1.0149318772477884</v>
-      </c>
-      <c r="K19" s="12">
-        <f>+K4/G4-1</f>
-        <v>0.84510776973011703</v>
-      </c>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="8">
-        <f>+D6/D4</f>
+      <c r="D21" s="8">
+        <f t="shared" ref="D21:O21" si="12">+D6/D4</f>
         <v>0.6211198317623644</v>
       </c>
-      <c r="E20" s="8">
-        <f>+E6/E4</f>
+      <c r="E21" s="8">
+        <f t="shared" si="12"/>
         <v>0.5822620658547587</v>
       </c>
-      <c r="F20" s="8">
-        <f>+F6/F4</f>
+      <c r="F21" s="8">
+        <f t="shared" si="12"/>
         <v>0.56472842779513299</v>
       </c>
-      <c r="G20" s="8">
-        <f>+G6/G4</f>
+      <c r="G21" s="8">
+        <f t="shared" si="12"/>
         <v>0.57474859554243074</v>
       </c>
-      <c r="H20" s="8">
-        <f>+H6/H4</f>
+      <c r="H21" s="8">
+        <f t="shared" si="12"/>
         <v>0.61013306490128516</v>
       </c>
-      <c r="I20" s="8">
-        <f>+I6/I4</f>
+      <c r="I21" s="8">
+        <f t="shared" si="12"/>
         <v>0.63884212760995207</v>
       </c>
-      <c r="J20" s="8">
-        <f>+J6/J4</f>
+      <c r="J21" s="8">
+        <f t="shared" si="12"/>
         <v>0.65036714316238198</v>
       </c>
-      <c r="K20" s="8">
-        <f>+K6/K4</f>
+      <c r="K21" s="8">
+        <f t="shared" si="12"/>
         <v>0.64976288618300027</v>
       </c>
-    </row>
-    <row r="22" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
+      <c r="L21" s="8">
+        <f t="shared" si="12"/>
+        <v>0.6516185082695154</v>
+      </c>
+      <c r="M21" s="8">
+        <f t="shared" si="12"/>
+        <v>0.65760967132711468</v>
+      </c>
+      <c r="N21" s="8">
+        <f t="shared" si="12"/>
+        <v>0.65084412541679992</v>
+      </c>
+      <c r="O21" s="8">
+        <f t="shared" si="12"/>
+        <v>0.66418483673001405</v>
+      </c>
+      <c r="R21" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="S21" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="T21" s="25"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="R22" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="S22" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="T22" s="25"/>
+    </row>
+    <row r="23" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6">
-        <f>1063.401+2751.679+1212.378</f>
-        <v>5027.4579999999996</v>
-      </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-    </row>
-    <row r="23" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1430,15 +2290,23 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6">
-        <v>277.55900000000003</v>
+        <f>1063.401+2751.679+1212.378</f>
+        <v>5027.4579999999996</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
-    </row>
-    <row r="24" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R23" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="S23" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="T23" s="25"/>
+    </row>
+    <row r="24" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1449,16 +2317,23 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6">
-        <f>53.943+124.34</f>
-        <v>178.28300000000002</v>
+        <v>277.55900000000003</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
-    </row>
-    <row r="25" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R24" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="S24" s="18">
+        <f>NPV(S23,T4:CU4)</f>
+        <v>121697.12013090959</v>
+      </c>
+      <c r="T24" s="26"/>
+    </row>
+    <row r="25" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -1469,15 +2344,24 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6">
-        <v>195.15100000000001</v>
+        <f>53.943+124.34</f>
+        <v>178.28300000000002</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-    </row>
-    <row r="26" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R25" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="S25" s="19">
+        <f>Main!M3</f>
+        <v>325.89999999999998</v>
+      </c>
+      <c r="T25" s="27"/>
+    </row>
+    <row r="26" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -1488,13 +2372,21 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6">
-        <v>118.611</v>
+        <v>195.15100000000001</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
-    </row>
-    <row r="27" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R26" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="S26" s="20">
+        <f>S24/S25</f>
+        <v>373.41859506262534</v>
+      </c>
+      <c r="T26" s="28"/>
+    </row>
+    <row r="27" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>37</v>
       </c>
@@ -1507,13 +2399,21 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6">
-        <v>188.946</v>
+        <v>118.611</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
-    </row>
-    <row r="28" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R27" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="S27" s="21">
+        <f>(S26-Main!M2)/Main!M2</f>
+        <v>0.9841583159544387</v>
+      </c>
+      <c r="T27" s="29"/>
+    </row>
+    <row r="28" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>36</v>
       </c>
@@ -1526,14 +2426,21 @@
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6">
-        <f>502.614+181.851</f>
-        <v>684.46499999999992</v>
+        <v>188.946</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
-    </row>
-    <row r="29" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R28" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="S28" s="22">
+        <f>S25*S26</f>
+        <v>121697.12013090959</v>
+      </c>
+      <c r="T28" s="30"/>
+    </row>
+    <row r="29" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>35</v>
       </c>
@@ -1546,44 +2453,44 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6">
-        <v>352.226</v>
+        <f>502.614+181.851</f>
+        <v>684.46499999999992</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
       <c r="K30" s="6">
-        <f>SUM(K22:K29)</f>
+        <v>352.226</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31" s="6">
+        <f>SUM(K23:K30)</f>
         <v>7022.6989999999996</v>
       </c>
-    </row>
-    <row r="32" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6">
-        <f>K15</f>
-        <v>-165.7940000000001</v>
-      </c>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
     </row>
     <row r="33" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -1594,7 +2501,8 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6">
-        <v>-165.79400000000001</v>
+        <f>K15</f>
+        <v>-165.7940000000001</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
@@ -1602,7 +2510,7 @@
     </row>
     <row r="34" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1613,7 +2521,7 @@
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6">
-        <v>9.9410000000000007</v>
+        <v>-165.79400000000001</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
@@ -1621,7 +2529,7 @@
     </row>
     <row r="35" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -1632,7 +2540,7 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6">
-        <v>10.090999999999999</v>
+        <v>9.9410000000000007</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
@@ -1640,7 +2548,7 @@
     </row>
     <row r="36" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -1651,7 +2559,7 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6">
-        <v>13.201000000000001</v>
+        <v>10.090999999999999</v>
       </c>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
@@ -1659,7 +2567,7 @@
     </row>
     <row r="37" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -1670,7 +2578,7 @@
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6">
-        <v>172.49299999999999</v>
+        <v>13.201000000000001</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
@@ -1678,7 +2586,7 @@
     </row>
     <row r="38" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -1689,7 +2597,7 @@
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6">
-        <v>8.1980000000000004</v>
+        <v>172.49299999999999</v>
       </c>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
@@ -1697,7 +2605,7 @@
     </row>
     <row r="39" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -1708,7 +2616,7 @@
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6">
-        <v>8.859</v>
+        <v>8.1980000000000004</v>
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
@@ -1716,7 +2624,7 @@
     </row>
     <row r="40" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -1727,7 +2635,7 @@
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6">
-        <v>-26.664000000000001</v>
+        <v>8.859</v>
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
@@ -1735,7 +2643,7 @@
     </row>
     <row r="41" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1746,7 +2654,7 @@
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6">
-        <v>1.7609999999999999</v>
+        <v>-26.664000000000001</v>
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
@@ -1754,7 +2662,7 @@
     </row>
     <row r="42" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -1765,8 +2673,7 @@
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6">
-        <f>266.656-16.718-57.535+4.158-14.217-8.376-21.441</f>
-        <v>152.52699999999999</v>
+        <v>1.7609999999999999</v>
       </c>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
@@ -1785,14 +2692,35 @@
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6">
-        <f>SUM(K33:K42)</f>
-        <v>184.61299999999997</v>
+        <f>266.656-16.718-57.535+4.158-14.217-8.376-21.441</f>
+        <v>152.52699999999999</v>
       </c>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
     </row>
+    <row r="44" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6">
+        <f>SUM(K34:K43)</f>
+        <v>184.61299999999997</v>
+      </c>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{567BD3AE-9464-472E-91DA-BE401641621D}"/>
   </hyperlinks>

--- a/SNOW.xlsx
+++ b/SNOW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Documents\GitHub\martinshkreli-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E4E07C-ADE8-4428-A7B8-0D636789AD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAD3C91-9911-47CF-BF03-C96FF021654D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15645" yWindow="90" windowWidth="24780" windowHeight="20805" activeTab="1" xr2:uid="{E26B75FC-9989-4D2B-A8FA-900EA2F68291}"/>
+    <workbookView xWindow="14235" yWindow="90" windowWidth="26190" windowHeight="20805" activeTab="1" xr2:uid="{E26B75FC-9989-4D2B-A8FA-900EA2F68291}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
   <si>
     <t>Price</t>
   </si>
@@ -285,6 +285,12 @@
   </si>
   <si>
     <t>Management expects growth to stabilize…need Q4 earnings to see about FY25 guidance and reacceleration</t>
+  </si>
+  <si>
+    <t>FQ125</t>
+  </si>
+  <si>
+    <t>Guidance was not good, even with a beat they're well under their target</t>
   </si>
 </sst>
 </file>
@@ -370,7 +376,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -413,6 +419,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -789,7 +796,7 @@
   <dimension ref="L2:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -799,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>233.28</v>
+        <v>188.28</v>
       </c>
     </row>
     <row r="3" spans="12:14" x14ac:dyDescent="0.2">
@@ -807,7 +814,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>329.31</v>
+        <v>331.07900000000001</v>
       </c>
       <c r="N3" s="3"/>
     </row>
@@ -817,7 +824,7 @@
       </c>
       <c r="M4" s="2">
         <f>+M2*M3</f>
-        <v>76821.436799999996</v>
+        <v>62335.554120000001</v>
       </c>
     </row>
     <row r="5" spans="12:14" x14ac:dyDescent="0.2">
@@ -844,7 +851,7 @@
       </c>
       <c r="M7" s="2">
         <f>+M4-M5+M6</f>
-        <v>74832.765799999994</v>
+        <v>60346.883119999999</v>
       </c>
     </row>
   </sheetData>
@@ -857,10 +864,10 @@
   <dimension ref="A1:CX48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="R4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W22" sqref="W22"/>
+      <selection pane="bottomRight" activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -986,7 +993,9 @@
       <c r="R3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="S3" s="3"/>
+      <c r="S3" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="W3" s="3" t="s">
@@ -1053,6 +1062,9 @@
         <f>(716+721)/2</f>
         <v>718.5</v>
       </c>
+      <c r="S4" s="9">
+        <v>747.5</v>
+      </c>
       <c r="W4" s="9">
         <v>554</v>
       </c>
@@ -1064,6 +1076,9 @@
       </c>
       <c r="Z4" s="9">
         <v>2650</v>
+      </c>
+      <c r="AA4" s="9">
+        <v>3250</v>
       </c>
       <c r="AE4" s="9">
         <v>10000</v>
@@ -1099,41 +1114,57 @@
         <f>R4*Q6</f>
         <v>36.718203722951905</v>
       </c>
+      <c r="X5" s="22">
+        <f>(X4-W4)/W4</f>
+        <v>1.0577617328519855</v>
+      </c>
+      <c r="Y5" s="22">
+        <f>(Y4-X4)/X4</f>
+        <v>0.7008771929824561</v>
+      </c>
+      <c r="Z5" s="22">
+        <f>(Z4-Y4)/Y4</f>
+        <v>0.36668385765858691</v>
+      </c>
+      <c r="AA5" s="22">
+        <f>(AA4-Z4)/Z4</f>
+        <v>0.22641509433962265</v>
+      </c>
     </row>
     <row r="6" spans="1:102" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>81</v>
       </c>
       <c r="K6" s="22">
-        <f>K5/K4</f>
+        <f t="shared" ref="K6:R6" si="0">K5/K4</f>
         <v>7.0828072630655575E-2</v>
       </c>
       <c r="L6" s="22">
-        <f>L5/L4</f>
+        <f t="shared" si="0"/>
         <v>6.644247514305078E-2</v>
       </c>
       <c r="M6" s="22">
-        <f>M5/M4</f>
+        <f t="shared" si="0"/>
         <v>6.5568376591576896E-2</v>
       </c>
       <c r="N6" s="22">
-        <f>N5/N4</f>
+        <f t="shared" si="0"/>
         <v>6.0654134756153555E-2</v>
       </c>
       <c r="O6" s="22">
-        <f>O5/O4</f>
+        <f t="shared" si="0"/>
         <v>5.6818489946989521E-2</v>
       </c>
       <c r="P6" s="22">
-        <f>P5/P4</f>
+        <f t="shared" si="0"/>
         <v>5.2809316957431088E-2</v>
       </c>
       <c r="Q6" s="22">
-        <f>Q5/Q4</f>
+        <f t="shared" si="0"/>
         <v>5.11039717786387E-2</v>
       </c>
-      <c r="R6" s="22">
-        <f>R5/R4</f>
+      <c r="R6" s="24">
+        <f t="shared" si="0"/>
         <v>5.11039717786387E-2</v>
       </c>
     </row>
@@ -1142,18 +1173,6 @@
         <v>80</v>
       </c>
       <c r="W7" s="22"/>
-      <c r="X7" s="22">
-        <f>(X4-W4)/W4</f>
-        <v>1.0577617328519855</v>
-      </c>
-      <c r="Y7" s="22">
-        <f>(Y4-X4)/X4</f>
-        <v>0.7008771929824561</v>
-      </c>
-      <c r="Z7" s="22">
-        <f>(Z4-Y4)/Y4</f>
-        <v>0.36668385765858691</v>
-      </c>
     </row>
     <row r="8" spans="1:102" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
@@ -1203,9 +1222,12 @@
       <c r="Q8" s="9">
         <v>734.173</v>
       </c>
-      <c r="R8" s="2">
-        <f>SUM(R4:R5)</f>
-        <v>755.2182037229519</v>
+      <c r="R8" s="9">
+        <v>774.69899999999996</v>
+      </c>
+      <c r="S8" s="2">
+        <f>S4/(1-R6)</f>
+        <v>787.75753904369901</v>
       </c>
       <c r="V8" s="9" t="s">
         <v>76</v>
@@ -1223,311 +1245,311 @@
       </c>
       <c r="Z8" s="9">
         <f>SUM(O8:R8)</f>
-        <v>2787.0082037229522</v>
+        <v>2806.489</v>
       </c>
       <c r="AA8" s="9">
-        <f>Z8*(1+$W$21)</f>
-        <v>3762.4610750259858</v>
+        <f t="shared" ref="AA8:AH8" si="1">Z8*(1+$W$21)</f>
+        <v>3423.9165800000001</v>
       </c>
       <c r="AB8" s="9">
-        <f>AA8*(1+$W$21)</f>
-        <v>5079.3224512850811</v>
+        <f t="shared" si="1"/>
+        <v>4177.1782276000004</v>
       </c>
       <c r="AC8" s="9">
-        <f>AB8*(1+$W$21)</f>
-        <v>6857.0853092348598</v>
+        <f t="shared" si="1"/>
+        <v>5096.157437672</v>
       </c>
       <c r="AD8" s="9">
-        <f>AC8*(1+$W$21)</f>
-        <v>9257.0651674670607</v>
+        <f t="shared" si="1"/>
+        <v>6217.3120739598398</v>
       </c>
       <c r="AE8" s="9">
-        <f>AD8*(1+$W$21)</f>
-        <v>12497.037976080534</v>
+        <f t="shared" si="1"/>
+        <v>7585.120730231004</v>
       </c>
       <c r="AF8" s="9">
-        <f>AE8*(1+$W$21)</f>
-        <v>16871.001267708722</v>
+        <f t="shared" si="1"/>
+        <v>9253.8472908818239</v>
       </c>
       <c r="AG8" s="9">
-        <f>AF8*(1+$W$21)</f>
-        <v>22775.851711406776</v>
+        <f t="shared" si="1"/>
+        <v>11289.693694875825</v>
       </c>
       <c r="AH8" s="9">
-        <f>AG8*(1+$W$21)</f>
-        <v>30747.399810399151</v>
+        <f t="shared" si="1"/>
+        <v>13773.426307748507</v>
       </c>
       <c r="AI8" s="9">
-        <f>AH8*(1+$W$22)</f>
-        <v>31054.873808503144</v>
+        <f t="shared" ref="AI8:BN8" si="2">AH8*(1+$W$22)</f>
+        <v>13911.160570825992</v>
       </c>
       <c r="AJ8" s="9">
-        <f>AI8*(1+$W$22)</f>
-        <v>31365.422546588175</v>
+        <f t="shared" si="2"/>
+        <v>14050.272176534252</v>
       </c>
       <c r="AK8" s="9">
-        <f>AJ8*(1+$W$22)</f>
-        <v>31679.076772054057</v>
+        <f t="shared" si="2"/>
+        <v>14190.774898299594</v>
       </c>
       <c r="AL8" s="9">
-        <f>AK8*(1+$W$22)</f>
-        <v>31995.867539774597</v>
+        <f t="shared" si="2"/>
+        <v>14332.682647282591</v>
       </c>
       <c r="AM8" s="9">
-        <f>AL8*(1+$W$22)</f>
-        <v>32315.826215172343</v>
+        <f t="shared" si="2"/>
+        <v>14476.009473755417</v>
       </c>
       <c r="AN8" s="9">
-        <f>AM8*(1+$W$22)</f>
-        <v>32638.984477324066</v>
+        <f t="shared" si="2"/>
+        <v>14620.769568492971</v>
       </c>
       <c r="AO8" s="9">
-        <f>AN8*(1+$W$22)</f>
-        <v>32965.374322097305</v>
+        <f t="shared" si="2"/>
+        <v>14766.977264177902</v>
       </c>
       <c r="AP8" s="9">
-        <f>AO8*(1+$W$22)</f>
-        <v>33295.028065318278</v>
+        <f t="shared" si="2"/>
+        <v>14914.647036819681</v>
       </c>
       <c r="AQ8" s="9">
-        <f>AP8*(1+$W$22)</f>
-        <v>33627.97834597146</v>
+        <f t="shared" si="2"/>
+        <v>15063.793507187878</v>
       </c>
       <c r="AR8" s="9">
-        <f>AQ8*(1+$W$22)</f>
-        <v>33964.258129431175</v>
+        <f t="shared" si="2"/>
+        <v>15214.431442259756</v>
       </c>
       <c r="AS8" s="9">
-        <f>AR8*(1+$W$22)</f>
-        <v>34303.900710725487</v>
+        <f t="shared" si="2"/>
+        <v>15366.575756682354</v>
       </c>
       <c r="AT8" s="9">
-        <f>AS8*(1+$W$22)</f>
-        <v>34646.939717832742</v>
+        <f t="shared" si="2"/>
+        <v>15520.241514249177</v>
       </c>
       <c r="AU8" s="9">
-        <f>AT8*(1+$W$22)</f>
-        <v>34993.409115011069</v>
+        <f t="shared" si="2"/>
+        <v>15675.443929391669</v>
       </c>
       <c r="AV8" s="9">
-        <f>AU8*(1+$W$22)</f>
-        <v>35343.343206161182</v>
+        <f t="shared" si="2"/>
+        <v>15832.198368685586</v>
       </c>
       <c r="AW8" s="9">
-        <f>AV8*(1+$W$22)</f>
-        <v>35696.776638222793</v>
+        <f t="shared" si="2"/>
+        <v>15990.520352372441</v>
       </c>
       <c r="AX8" s="9">
-        <f>AW8*(1+$W$22)</f>
-        <v>36053.744404605022</v>
+        <f t="shared" si="2"/>
+        <v>16150.425555896165</v>
       </c>
       <c r="AY8" s="9">
-        <f>AX8*(1+$W$22)</f>
-        <v>36414.281848651073</v>
+        <f t="shared" si="2"/>
+        <v>16311.929811455127</v>
       </c>
       <c r="AZ8" s="9">
-        <f>AY8*(1+$W$22)</f>
-        <v>36778.424667137588</v>
+        <f t="shared" si="2"/>
+        <v>16475.049109569678</v>
       </c>
       <c r="BA8" s="9">
-        <f>AZ8*(1+$W$22)</f>
-        <v>37146.208913808965</v>
+        <f t="shared" si="2"/>
+        <v>16639.799600665374</v>
       </c>
       <c r="BB8" s="9">
-        <f>BA8*(1+$W$22)</f>
-        <v>37517.671002947056</v>
+        <f t="shared" si="2"/>
+        <v>16806.197596672027</v>
       </c>
       <c r="BC8" s="9">
-        <f>BB8*(1+$W$22)</f>
-        <v>37892.847712976523</v>
+        <f t="shared" si="2"/>
+        <v>16974.259572638748</v>
       </c>
       <c r="BD8" s="9">
-        <f>BC8*(1+$W$22)</f>
-        <v>38271.776190106291</v>
+        <f t="shared" si="2"/>
+        <v>17144.002168365136</v>
       </c>
       <c r="BE8" s="9">
-        <f>BD8*(1+$W$22)</f>
-        <v>38654.493952007353</v>
+        <f t="shared" si="2"/>
+        <v>17315.442190048787</v>
       </c>
       <c r="BF8" s="9">
-        <f>BE8*(1+$W$22)</f>
-        <v>39041.038891527423</v>
+        <f t="shared" si="2"/>
+        <v>17488.596611949273</v>
       </c>
       <c r="BG8" s="9">
-        <f>BF8*(1+$W$22)</f>
-        <v>39431.449280442699</v>
+        <f t="shared" si="2"/>
+        <v>17663.482578068768</v>
       </c>
       <c r="BH8" s="9">
-        <f>BG8*(1+$W$22)</f>
-        <v>39825.763773247127</v>
+        <f t="shared" si="2"/>
+        <v>17840.117403849457</v>
       </c>
       <c r="BI8" s="9">
-        <f>BH8*(1+$W$22)</f>
-        <v>40224.0214109796</v>
+        <f t="shared" si="2"/>
+        <v>18018.518577887953</v>
       </c>
       <c r="BJ8" s="9">
-        <f>BI8*(1+$W$22)</f>
-        <v>40626.261625089399</v>
+        <f t="shared" si="2"/>
+        <v>18198.703763666832</v>
       </c>
       <c r="BK8" s="9">
-        <f>BJ8*(1+$W$22)</f>
-        <v>41032.524241340296</v>
+        <f t="shared" si="2"/>
+        <v>18380.690801303499</v>
       </c>
       <c r="BL8" s="9">
-        <f>BK8*(1+$W$22)</f>
-        <v>41442.8494837537</v>
+        <f t="shared" si="2"/>
+        <v>18564.497709316533</v>
       </c>
       <c r="BM8" s="9">
-        <f>BL8*(1+$W$22)</f>
-        <v>41857.277978591235</v>
+        <f t="shared" si="2"/>
+        <v>18750.142686409697</v>
       </c>
       <c r="BN8" s="9">
-        <f>BM8*(1+$W$22)</f>
-        <v>42275.85075837715</v>
+        <f t="shared" si="2"/>
+        <v>18937.644113273796</v>
       </c>
       <c r="BO8" s="9">
-        <f>BN8*(1+$W$22)</f>
-        <v>42698.60926596092</v>
+        <f t="shared" ref="BO8:CX8" si="3">BN8*(1+$W$22)</f>
+        <v>19127.020554406536</v>
       </c>
       <c r="BP8" s="9">
-        <f>BO8*(1+$W$22)</f>
-        <v>43125.595358620529</v>
+        <f t="shared" si="3"/>
+        <v>19318.2907599506</v>
       </c>
       <c r="BQ8" s="9">
-        <f>BP8*(1+$W$22)</f>
-        <v>43556.851312206738</v>
+        <f t="shared" si="3"/>
+        <v>19511.473667550104</v>
       </c>
       <c r="BR8" s="9">
-        <f>BQ8*(1+$W$22)</f>
-        <v>43992.419825328805</v>
+        <f t="shared" si="3"/>
+        <v>19706.588404225604</v>
       </c>
       <c r="BS8" s="9">
-        <f>BR8*(1+$W$22)</f>
-        <v>44432.344023582096</v>
+        <f t="shared" si="3"/>
+        <v>19903.654288267859</v>
       </c>
       <c r="BT8" s="9">
-        <f>BS8*(1+$W$22)</f>
-        <v>44876.667463817917</v>
+        <f t="shared" si="3"/>
+        <v>20102.690831150536</v>
       </c>
       <c r="BU8" s="9">
-        <f>BT8*(1+$W$22)</f>
-        <v>45325.434138456098</v>
+        <f t="shared" si="3"/>
+        <v>20303.717739462041</v>
       </c>
       <c r="BV8" s="9">
-        <f>BU8*(1+$W$22)</f>
-        <v>45778.688479840661</v>
+        <f t="shared" si="3"/>
+        <v>20506.754916856662</v>
       </c>
       <c r="BW8" s="9">
-        <f>BV8*(1+$W$22)</f>
-        <v>46236.475364639067</v>
+        <f t="shared" si="3"/>
+        <v>20711.822466025227</v>
       </c>
       <c r="BX8" s="9">
-        <f>BW8*(1+$W$22)</f>
-        <v>46698.840118285458</v>
+        <f t="shared" si="3"/>
+        <v>20918.940690685478</v>
       </c>
       <c r="BY8" s="9">
-        <f>BX8*(1+$W$22)</f>
-        <v>47165.828519468312</v>
+        <f t="shared" si="3"/>
+        <v>21128.130097592333</v>
       </c>
       <c r="BZ8" s="9">
-        <f>BY8*(1+$W$22)</f>
-        <v>47637.486804662993</v>
+        <f t="shared" si="3"/>
+        <v>21339.411398568256</v>
       </c>
       <c r="CA8" s="9">
-        <f>BZ8*(1+$W$22)</f>
-        <v>48113.861672709623</v>
+        <f t="shared" si="3"/>
+        <v>21552.805512553939</v>
       </c>
       <c r="CB8" s="9">
-        <f>CA8*(1+$W$22)</f>
-        <v>48595.000289436721</v>
+        <f t="shared" si="3"/>
+        <v>21768.333567679478</v>
       </c>
       <c r="CC8" s="9">
-        <f>CB8*(1+$W$22)</f>
-        <v>49080.950292331087</v>
+        <f t="shared" si="3"/>
+        <v>21986.016903356274</v>
       </c>
       <c r="CD8" s="9">
-        <f>CC8*(1+$W$22)</f>
-        <v>49571.759795254395</v>
+        <f t="shared" si="3"/>
+        <v>22205.877072389838</v>
       </c>
       <c r="CE8" s="9">
-        <f>CD8*(1+$W$22)</f>
-        <v>50067.477393206937</v>
+        <f t="shared" si="3"/>
+        <v>22427.935843113737</v>
       </c>
       <c r="CF8" s="9">
-        <f>CE8*(1+$W$22)</f>
-        <v>50568.152167139007</v>
+        <f t="shared" si="3"/>
+        <v>22652.215201544874</v>
       </c>
       <c r="CG8" s="9">
-        <f>CF8*(1+$W$22)</f>
-        <v>51073.833688810395</v>
+        <f t="shared" si="3"/>
+        <v>22878.737353560322</v>
       </c>
       <c r="CH8" s="9">
-        <f>CG8*(1+$W$22)</f>
-        <v>51584.572025698501</v>
+        <f t="shared" si="3"/>
+        <v>23107.524727095926</v>
       </c>
       <c r="CI8" s="9">
-        <f>CH8*(1+$W$22)</f>
-        <v>52100.417745955485</v>
+        <f t="shared" si="3"/>
+        <v>23338.599974366887</v>
       </c>
       <c r="CJ8" s="9">
-        <f>CI8*(1+$W$22)</f>
-        <v>52621.421923415037</v>
+        <f t="shared" si="3"/>
+        <v>23571.985974110557</v>
       </c>
       <c r="CK8" s="9">
-        <f>CJ8*(1+$W$22)</f>
-        <v>53147.636142649186</v>
+        <f t="shared" si="3"/>
+        <v>23807.705833851662</v>
       </c>
       <c r="CL8" s="9">
-        <f>CK8*(1+$W$22)</f>
-        <v>53679.112504075681</v>
+        <f t="shared" si="3"/>
+        <v>24045.782892190178</v>
       </c>
       <c r="CM8" s="9">
-        <f>CL8*(1+$W$22)</f>
-        <v>54215.903629116438</v>
+        <f t="shared" si="3"/>
+        <v>24286.240721112081</v>
       </c>
       <c r="CN8" s="9">
-        <f>CM8*(1+$W$22)</f>
-        <v>54758.062665407604</v>
+        <f t="shared" si="3"/>
+        <v>24529.103128323201</v>
       </c>
       <c r="CO8" s="9">
-        <f>CN8*(1+$W$22)</f>
-        <v>55305.643292061679</v>
+        <f t="shared" si="3"/>
+        <v>24774.394159606432</v>
       </c>
       <c r="CP8" s="9">
-        <f>CO8*(1+$W$22)</f>
-        <v>55858.699724982296</v>
+        <f t="shared" si="3"/>
+        <v>25022.138101202498</v>
       </c>
       <c r="CQ8" s="9">
-        <f>CP8*(1+$W$22)</f>
-        <v>56417.286722232122</v>
+        <f t="shared" si="3"/>
+        <v>25272.359482214524</v>
       </c>
       <c r="CR8" s="9">
-        <f>CQ8*(1+$W$22)</f>
-        <v>56981.459589454447</v>
+        <f t="shared" si="3"/>
+        <v>25525.08307703667</v>
       </c>
       <c r="CS8" s="9">
-        <f>CR8*(1+$W$22)</f>
-        <v>57551.274185348993</v>
+        <f t="shared" si="3"/>
+        <v>25780.333907807038</v>
       </c>
       <c r="CT8" s="9">
-        <f>CS8*(1+$W$22)</f>
-        <v>58126.786927202484</v>
+        <f t="shared" si="3"/>
+        <v>26038.137246885108</v>
       </c>
       <c r="CU8" s="9">
-        <f>CT8*(1+$W$22)</f>
-        <v>58708.054796474506</v>
+        <f t="shared" si="3"/>
+        <v>26298.518619353959</v>
       </c>
       <c r="CV8" s="9">
-        <f>CU8*(1+$W$22)</f>
-        <v>59295.135344439252</v>
+        <f t="shared" si="3"/>
+        <v>26561.503805547498</v>
       </c>
       <c r="CW8" s="9">
-        <f>CV8*(1+$W$22)</f>
-        <v>59888.086697883642</v>
+        <f t="shared" si="3"/>
+        <v>26827.118843602973</v>
       </c>
       <c r="CX8" s="9">
-        <f>CW8*(1+$W$22)</f>
-        <v>60486.967564862476</v>
+        <f t="shared" si="3"/>
+        <v>27095.390032039002</v>
       </c>
     </row>
     <row r="9" spans="1:102" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1578,12 +1600,18 @@
       <c r="Q9" s="2">
         <v>228.94800000000001</v>
       </c>
+      <c r="R9" s="2">
+        <v>241.804</v>
+      </c>
       <c r="V9" s="9" t="s">
         <v>75</v>
       </c>
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
+      <c r="AA9" s="2">
+        <v>3492</v>
+      </c>
       <c r="AE9" s="2">
         <f>AE4*1.05</f>
         <v>10500</v>
@@ -1595,60 +1623,64 @@
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6">
-        <f t="shared" ref="D10:K10" si="0">+D8-D9</f>
+        <f t="shared" ref="D10:K10" si="4">+D8-D9</f>
         <v>82.699000000000012</v>
       </c>
       <c r="E10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>92.942999999999998</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>107.56100000000001</v>
       </c>
       <c r="G10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>131.56799999999998</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>166.077</v>
       </c>
       <c r="I10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>213.65499999999997</v>
       </c>
       <c r="J10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>249.59399999999999</v>
       </c>
       <c r="K10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>274.44099999999997</v>
       </c>
       <c r="L10" s="6">
-        <f>L8-L9</f>
+        <f t="shared" ref="L10:R10" si="5">L8-L9</f>
         <v>324.01599999999996</v>
       </c>
       <c r="M10" s="6">
-        <f>M8-M9</f>
+        <f t="shared" si="5"/>
         <v>366.30700000000002</v>
       </c>
       <c r="N10" s="6">
-        <f>N8-N9</f>
+        <f t="shared" si="5"/>
         <v>383.35500000000025</v>
       </c>
       <c r="O10" s="6">
-        <f>O8-O9</f>
+        <f t="shared" si="5"/>
         <v>414.18500000000006</v>
       </c>
       <c r="P10" s="6">
-        <f>P8-P9</f>
+        <f t="shared" si="5"/>
         <v>455.62600000000003</v>
       </c>
       <c r="Q10" s="6">
-        <f>Q8-Q9</f>
+        <f t="shared" si="5"/>
         <v>505.22500000000002</v>
+      </c>
+      <c r="R10" s="6">
+        <f t="shared" si="5"/>
+        <v>532.89499999999998</v>
       </c>
     </row>
     <row r="11" spans="1:102" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1699,72 +1731,75 @@
       <c r="Q11" s="2">
         <v>355.07900000000001</v>
       </c>
-      <c r="V11" s="2" t="s">
+      <c r="R11" s="2">
+        <v>361.822</v>
+      </c>
+      <c r="V11" s="9" t="s">
         <v>77</v>
       </c>
       <c r="X11" s="22">
-        <f t="shared" ref="X11:AM11" si="1">(X8-W8)/W8</f>
+        <f t="shared" ref="X11:AM11" si="6">(X8-W8)/W8</f>
         <v>1.0595035208234451</v>
       </c>
       <c r="Y11" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.69409764566847165</v>
       </c>
       <c r="Z11" s="22">
-        <f t="shared" si="1"/>
-        <v>0.34921020542255621</v>
+        <f t="shared" si="6"/>
+        <v>0.35864099544019601</v>
       </c>
       <c r="AA11" s="22">
-        <f t="shared" si="1"/>
-        <v>0.35000000000000009</v>
+        <f t="shared" si="6"/>
+        <v>0.22</v>
       </c>
       <c r="AB11" s="22">
-        <f t="shared" si="1"/>
-        <v>0.35000000000000009</v>
+        <f t="shared" si="6"/>
+        <v>0.22000000000000008</v>
       </c>
       <c r="AC11" s="22">
-        <f t="shared" si="1"/>
-        <v>0.35000000000000003</v>
+        <f t="shared" si="6"/>
+        <v>0.21999999999999989</v>
       </c>
       <c r="AD11" s="22">
-        <f t="shared" si="1"/>
-        <v>0.35000000000000003</v>
+        <f t="shared" si="6"/>
+        <v>0.21999999999999997</v>
       </c>
       <c r="AE11" s="22">
-        <f t="shared" si="1"/>
-        <v>0.35000000000000014</v>
+        <f t="shared" si="6"/>
+        <v>0.21999999999999992</v>
       </c>
       <c r="AF11" s="22">
-        <f t="shared" si="1"/>
-        <v>0.35000000000000009</v>
+        <f t="shared" si="6"/>
+        <v>0.21999999999999986</v>
       </c>
       <c r="AG11" s="22">
-        <f t="shared" si="1"/>
-        <v>0.35000000000000014</v>
+        <f t="shared" si="6"/>
+        <v>0.21999999999999995</v>
       </c>
       <c r="AH11" s="22">
-        <f t="shared" si="1"/>
-        <v>0.35000000000000014</v>
+        <f t="shared" si="6"/>
+        <v>0.22000000000000003</v>
       </c>
       <c r="AI11" s="22">
-        <f t="shared" si="1"/>
-        <v>1.0000000000000045E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.0000000000000038E-2</v>
       </c>
       <c r="AJ11" s="22">
-        <f t="shared" si="1"/>
-        <v>1.0000000000000012E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.0000000000000002E-2</v>
       </c>
       <c r="AK11" s="22">
-        <f t="shared" si="1"/>
-        <v>9.999999999999995E-3</v>
+        <f t="shared" si="6"/>
+        <v>9.9999999999999881E-3</v>
       </c>
       <c r="AL11" s="22">
-        <f t="shared" si="1"/>
-        <v>9.9999999999999915E-3</v>
+        <f t="shared" si="6"/>
+        <v>1.0000000000000007E-2</v>
       </c>
       <c r="AM11" s="22">
-        <f t="shared" si="1"/>
-        <v>9.9999999999999863E-3</v>
+        <f t="shared" si="6"/>
+        <v>1.0000000000000057E-2</v>
       </c>
     </row>
     <row r="12" spans="1:102" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1815,6 +1850,9 @@
       <c r="Q12" s="2">
         <v>332.065</v>
       </c>
+      <c r="R12" s="2">
+        <v>364.476</v>
+      </c>
     </row>
     <row r="13" spans="1:102" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
@@ -1864,9 +1902,8 @@
       <c r="Q13" s="2">
         <v>78.703999999999994</v>
       </c>
-      <c r="W13" s="2">
-        <f>(Z8-SUM(O8:P8))-SUM(Q8:R8)</f>
-        <v>0</v>
+      <c r="R13" s="2">
+        <v>82.102000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:102" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1875,47 +1912,47 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6">
-        <f t="shared" ref="D14:N14" si="2">SUM(D11:D13)</f>
+        <f t="shared" ref="D14:N14" si="7">SUM(D11:D13)</f>
         <v>160.38200000000001</v>
       </c>
       <c r="E14" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>262.39699999999999</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>307.95800000000003</v>
       </c>
       <c r="G14" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>337.16300000000001</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>366.21800000000002</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>370.92599999999999</v>
       </c>
       <c r="J14" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>401.62300000000005</v>
       </c>
       <c r="K14" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>463.20700000000005</v>
       </c>
       <c r="L14" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>531.56799999999998</v>
       </c>
       <c r="M14" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>572.32600000000002</v>
       </c>
       <c r="N14" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>623.28500000000008</v>
       </c>
       <c r="O14" s="6">
@@ -1930,6 +1967,10 @@
         <f>SUM(Q11:Q13)</f>
         <v>765.84799999999996</v>
       </c>
+      <c r="R14" s="6">
+        <f>SUM(R11:R13)</f>
+        <v>808.4</v>
+      </c>
     </row>
     <row r="15" spans="1:102" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
@@ -1937,47 +1978,47 @@
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6">
-        <f t="shared" ref="D15:N15" si="3">+D10-D14</f>
+        <f t="shared" ref="D15:N15" si="8">+D10-D14</f>
         <v>-77.682999999999993</v>
       </c>
       <c r="E15" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-169.45400000000001</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-200.39700000000002</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-205.59500000000003</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-200.14100000000002</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-157.27100000000002</v>
       </c>
       <c r="J15" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-152.02900000000005</v>
       </c>
       <c r="K15" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-188.76600000000008</v>
       </c>
       <c r="L15" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-207.55200000000002</v>
       </c>
       <c r="M15" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-206.01900000000001</v>
       </c>
       <c r="N15" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-239.92999999999984</v>
       </c>
       <c r="O15" s="6">
@@ -1992,6 +2033,10 @@
         <f>+Q10-Q14</f>
         <v>-260.62299999999993</v>
       </c>
+      <c r="R15" s="6">
+        <f>+R10-R14</f>
+        <v>-275.505</v>
+      </c>
     </row>
     <row r="16" spans="1:102" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
@@ -2051,55 +2096,58 @@
         <f>-4.17+53.491</f>
         <v>49.320999999999998</v>
       </c>
-      <c r="R16" s="2"/>
-    </row>
-    <row r="17" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R16" s="2">
+        <f>53.761</f>
+        <v>53.761000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6">
-        <f t="shared" ref="D17:N17" si="4">+D15+D16</f>
+        <f t="shared" ref="D17:N17" si="9">+D15+D16</f>
         <v>-75.994</v>
       </c>
       <c r="E17" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-168.45600000000002</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-197.59300000000002</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-203.47100000000003</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-197.95100000000002</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-153.67700000000002</v>
       </c>
       <c r="J17" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-149.68700000000004</v>
       </c>
       <c r="K17" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-192.48800000000008</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-218.78000000000003</v>
       </c>
       <c r="M17" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-197.43299999999999</v>
       </c>
       <c r="N17" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-207.29199999999983</v>
       </c>
       <c r="O17" s="6">
@@ -2114,8 +2162,12 @@
         <f>+Q15+Q16</f>
         <v>-211.30199999999994</v>
       </c>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="R17" s="6">
+        <f>+R15+R16</f>
+        <v>-221.744</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
@@ -2164,55 +2216,58 @@
         <f>3.392</f>
         <v>3.3919999999999999</v>
       </c>
-      <c r="R18" s="2"/>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="R18" s="2">
+        <f>-4.299</f>
+        <v>-4.2990000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6">
-        <f t="shared" ref="D19:N19" si="5">+D17-D18</f>
+        <f t="shared" ref="D19:N19" si="10">+D17-D18</f>
         <v>-76.525000000000006</v>
       </c>
       <c r="E19" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-168.88900000000001</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-198.93500000000003</v>
       </c>
       <c r="G19" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-203.22000000000003</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-198.46500000000003</v>
       </c>
       <c r="I19" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-154.85600000000002</v>
       </c>
       <c r="J19" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-151.23300000000003</v>
       </c>
       <c r="K19" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-165.7940000000001</v>
       </c>
       <c r="L19" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-222.62600000000003</v>
       </c>
       <c r="M19" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-201.44200000000001</v>
       </c>
       <c r="N19" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-207.66399999999982</v>
       </c>
       <c r="O19" s="6">
@@ -2227,7 +2282,10 @@
         <f>+Q17-Q18</f>
         <v>-214.69399999999993</v>
       </c>
-      <c r="R19" s="2"/>
+      <c r="R19" s="6">
+        <f>+R17-R18</f>
+        <v>-217.44499999999999</v>
+      </c>
       <c r="S19" s="15"/>
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
@@ -2235,53 +2293,53 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="2:23" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:26" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="7">
-        <f t="shared" ref="D20:N20" si="6">+D19/D21</f>
+        <f t="shared" ref="D20:N20" si="11">+D19/D21</f>
         <v>-1.2913291780742517</v>
       </c>
       <c r="E20" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-1.0121101563988826</v>
       </c>
       <c r="F20" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-0.70017512244406388</v>
       </c>
       <c r="G20" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-0.69742540822139709</v>
       </c>
       <c r="H20" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-0.666622779365454</v>
       </c>
       <c r="I20" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-0.51106463212189535</v>
       </c>
       <c r="J20" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-0.48991318468714745</v>
       </c>
       <c r="K20" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-0.52740002735708347</v>
       </c>
       <c r="L20" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-0.69929889808893198</v>
       </c>
       <c r="M20" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-0.62924078904212288</v>
       </c>
       <c r="N20" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-0.65153578263734135</v>
       </c>
       <c r="O20" s="7">
@@ -2296,12 +2354,15 @@
         <f>+Q19/Q21</f>
         <v>-0.65195104916340207</v>
       </c>
-      <c r="R20"/>
+      <c r="R20" s="7">
+        <f>+R19/R21</f>
+        <v>-0.65677678137242168</v>
+      </c>
       <c r="S20" s="12"/>
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>1</v>
       </c>
@@ -2348,15 +2409,17 @@
       <c r="Q21" s="2">
         <v>329.31</v>
       </c>
-      <c r="R21" s="2"/>
+      <c r="R21" s="2">
+        <v>331.07900000000001</v>
+      </c>
       <c r="V21" s="16" t="s">
         <v>66</v>
       </c>
       <c r="W21" s="17">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.2">
       <c r="O22" s="3"/>
       <c r="V22" s="16" t="s">
         <v>67</v>
@@ -2364,68 +2427,75 @@
       <c r="W22" s="17">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="23" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="13" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15">
-        <f t="shared" ref="E23:R23" si="7">(E8-D8)/D8</f>
+        <f t="shared" ref="E23:Q23" si="12">(E8-D8)/D8</f>
         <v>0.19887340868977418</v>
       </c>
       <c r="F23" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.19321029419134972</v>
       </c>
       <c r="G23" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.20186910981020126</v>
       </c>
       <c r="H23" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.18908411018985294</v>
       </c>
       <c r="I23" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.22866810189641365</v>
       </c>
       <c r="J23" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.14750882816401109</v>
       </c>
       <c r="K23" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.10057221177046903</v>
       </c>
       <c r="L23" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.17727779606080912</v>
       </c>
       <c r="M23" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.12022170023811062</v>
       </c>
       <c r="N23" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>5.7419016638302116E-2</v>
       </c>
       <c r="O23" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>5.8720365629222948E-2</v>
       </c>
       <c r="P23" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>8.0851637029565437E-2</v>
       </c>
       <c r="Q23" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>8.9248358352447515E-2</v>
       </c>
       <c r="R23" s="15">
         <f>(R8-Q8)/Q8</f>
-        <v>2.8665183441711827E-2</v>
+        <v>5.5199523817955648E-2</v>
+      </c>
+      <c r="S23" s="15">
+        <f>(S8-R8)/R8</f>
+        <v>1.6856274557859319E-2</v>
       </c>
       <c r="V23" s="16" t="s">
         <v>68</v>
@@ -2434,7 +2504,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="24" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="9" t="s">
         <v>32</v>
       </c>
@@ -2444,31 +2514,31 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="12">
-        <f t="shared" ref="H24:N24" si="8">+H8/D8-1</f>
+        <f t="shared" ref="H24:N24" si="13">+H8/D8-1</f>
         <v>1.0443726764054224</v>
       </c>
       <c r="I24" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1.0951799228186236</v>
       </c>
       <c r="J24" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1.0149318772477884</v>
       </c>
       <c r="K24" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.84510776973011703</v>
       </c>
       <c r="L24" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.8267878529599777</v>
       </c>
       <c r="M24" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.66554937941221337</v>
       </c>
       <c r="N24" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.53478870376836407</v>
       </c>
       <c r="O24" s="12">
@@ -2483,86 +2553,96 @@
         <f>+Q8/L8-1</f>
         <v>0.47647250466567992</v>
       </c>
-      <c r="R24" s="12"/>
+      <c r="R24" s="12">
+        <f>+R8/M8-1</f>
+        <v>0.39077209763243492</v>
+      </c>
+      <c r="S24" s="12">
+        <f>+S8/N8-1</f>
+        <v>0.33742188451797039</v>
+      </c>
       <c r="V24" s="16" t="s">
         <v>69</v>
       </c>
       <c r="W24" s="18">
         <f>NPV(W23,W8:CX8)</f>
-        <v>132602.68186572575</v>
-      </c>
-    </row>
-    <row r="25" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>67742.122544963786</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="8">
-        <f t="shared" ref="D25:Q25" si="9">+D10/D8</f>
+        <f t="shared" ref="D25:R25" si="14">+D10/D8</f>
         <v>0.6211198317623644</v>
       </c>
       <c r="E25" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.5822620658547587</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.56472842779513299</v>
       </c>
       <c r="G25" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.57474859554243074</v>
       </c>
       <c r="H25" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.61013306490128516</v>
       </c>
       <c r="I25" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.63884212760995207</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.65036714316238198</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.64976288618300027</v>
       </c>
       <c r="L25" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.6516185082695154</v>
       </c>
       <c r="M25" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.65760967132711468</v>
       </c>
       <c r="N25" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.65084412541679992</v>
       </c>
       <c r="O25" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.66418483673001405</v>
       </c>
       <c r="P25" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.67598491434946839</v>
       </c>
       <c r="Q25" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.68815524406372885</v>
       </c>
-      <c r="R25"/>
+      <c r="R25" s="8">
+        <f t="shared" si="14"/>
+        <v>0.68787361284834503</v>
+      </c>
       <c r="V25" s="16" t="s">
         <v>1</v>
       </c>
       <c r="W25" s="19">
         <f>Main!M3</f>
-        <v>329.31</v>
-      </c>
-    </row>
-    <row r="26" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>331.07900000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -2585,10 +2665,10 @@
       </c>
       <c r="W26" s="20">
         <f>W24/W25</f>
-        <v>402.66825139147232</v>
-      </c>
-    </row>
-    <row r="27" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>204.6101460526454</v>
+      </c>
+    </row>
+    <row r="27" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
@@ -2612,10 +2692,10 @@
       </c>
       <c r="W27" s="23">
         <f>(W26-Main!M2)/Main!M2</f>
-        <v>0.72611561810473391</v>
-      </c>
-    </row>
-    <row r="28" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>8.6733301745514149E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>40</v>
       </c>
@@ -2638,10 +2718,10 @@
       </c>
       <c r="W28" s="21">
         <f>W25*W26</f>
-        <v>132602.68186572575</v>
-      </c>
-    </row>
-    <row r="29" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>67742.122544963786</v>
+      </c>
+    </row>
+    <row r="29" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>38</v>
       </c>
@@ -2661,7 +2741,7 @@
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
     </row>
-    <row r="30" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>39</v>
       </c>
@@ -2680,7 +2760,7 @@
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
@@ -2703,7 +2783,7 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>36</v>
       </c>

--- a/SNOW.xlsx
+++ b/SNOW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Documents\GitHub\martinshkreli-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAD3C91-9911-47CF-BF03-C96FF021654D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1937CC-4234-4478-9A31-B752ED6A6754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14235" yWindow="90" windowWidth="26190" windowHeight="20805" activeTab="1" xr2:uid="{E26B75FC-9989-4D2B-A8FA-900EA2F68291}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{E26B75FC-9989-4D2B-A8FA-900EA2F68291}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,24 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={0D4385B0-D20F-4F85-B54F-FC0EA69C7B55}</author>
+  </authors>
+  <commentList>
+    <comment ref="Z4" authorId="0" shapeId="0" xr:uid="{0D4385B0-D20F-4F85-B54F-FC0EA69C7B55}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    My quarterly numbers are off by 20 somewhere</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
   <si>
@@ -304,7 +322,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -334,6 +352,12 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -376,7 +400,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -419,7 +443,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -494,6 +517,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Jefferson Hwang-F22B" id="{354EC540-A53E-41EB-8402-3462E77FFE59}" userId="S::jefferh2@ad.uci.edu::209c1842-3e77-4b1a-ae04-0aa76273ce57" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -791,25 +820,33 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="Z4" dT="2024-05-22T20:30:07.83" personId="{354EC540-A53E-41EB-8402-3462E77FFE59}" id="{0D4385B0-D20F-4F85-B54F-FC0EA69C7B55}">
+    <text>My quarterly numbers are off by 20 somewhere</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07695F87-C53B-4BF8-B238-ED8253036919}">
   <dimension ref="L2:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L2" t="s">
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>188.28</v>
-      </c>
-    </row>
-    <row r="3" spans="12:14" x14ac:dyDescent="0.2">
+        <v>164.1</v>
+      </c>
+    </row>
+    <row r="3" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L3" t="s">
         <v>1</v>
       </c>
@@ -818,16 +855,16 @@
       </c>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L4" t="s">
         <v>2</v>
       </c>
       <c r="M4" s="2">
         <f>+M2*M3</f>
-        <v>62335.554120000001</v>
-      </c>
-    </row>
-    <row r="5" spans="12:14" x14ac:dyDescent="0.2">
+        <v>54330.063900000001</v>
+      </c>
+    </row>
+    <row r="5" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L5" t="s">
         <v>3</v>
       </c>
@@ -836,7 +873,7 @@
       </c>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L6" t="s">
         <v>4</v>
       </c>
@@ -845,13 +882,13 @@
       </c>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L7" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="2">
         <f>+M4-M5+M6</f>
-        <v>60346.883119999999</v>
+        <v>52341.392899999999</v>
       </c>
     </row>
   </sheetData>
@@ -860,41 +897,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B950461E-5EFB-45DD-9161-EF94163D814D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B950461E-5EFB-45DD-9161-EF94163D814D}">
   <dimension ref="A1:CX48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="V4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z23" sqref="Z23"/>
+      <selection pane="bottomRight" activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" style="3"/>
-    <col min="9" max="9" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="9.140625" style="3"/>
-    <col min="13" max="13" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="3"/>
-    <col min="15" max="16" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="12.28515625" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.109375" style="3"/>
+    <col min="5" max="5" width="10.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.109375" style="3"/>
+    <col min="9" max="9" width="10.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9.109375" style="3"/>
+    <col min="13" max="13" width="10.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" style="3"/>
+    <col min="15" max="16" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="12.33203125" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:102" x14ac:dyDescent="0.25">
       <c r="D2" s="5">
         <v>44043</v>
       </c>
@@ -940,11 +977,13 @@
       <c r="R2" s="14">
         <v>45322</v>
       </c>
-      <c r="S2" s="14"/>
+      <c r="S2" s="14">
+        <v>45412</v>
+      </c>
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
     </row>
-    <row r="3" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:102" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1032,7 +1071,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:102" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:102" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>78</v>
       </c>
@@ -1063,7 +1102,7 @@
         <v>718.5</v>
       </c>
       <c r="S4" s="9">
-        <v>747.5</v>
+        <v>789.58699999999999</v>
       </c>
       <c r="W4" s="9">
         <v>554</v>
@@ -1075,16 +1114,16 @@
         <v>1939</v>
       </c>
       <c r="Z4" s="9">
-        <v>2650</v>
+        <v>2667</v>
       </c>
       <c r="AA4" s="9">
-        <v>3250</v>
+        <v>3300</v>
       </c>
       <c r="AE4" s="9">
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:102" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:102" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>79</v>
       </c>
@@ -1114,6 +1153,9 @@
         <f>R4*Q6</f>
         <v>36.718203722951905</v>
       </c>
+      <c r="S5" s="2">
+        <v>39.122</v>
+      </c>
       <c r="X5" s="22">
         <f>(X4-W4)/W4</f>
         <v>1.0577617328519855</v>
@@ -1124,14 +1166,14 @@
       </c>
       <c r="Z5" s="22">
         <f>(Z4-Y4)/Y4</f>
-        <v>0.36668385765858691</v>
+        <v>0.37545126353790614</v>
       </c>
       <c r="AA5" s="22">
         <f>(AA4-Z4)/Z4</f>
-        <v>0.22641509433962265</v>
-      </c>
-    </row>
-    <row r="6" spans="1:102" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0.2373453318335208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:102" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>81</v>
       </c>
@@ -1163,18 +1205,18 @@
         <f t="shared" si="0"/>
         <v>5.11039717786387E-2</v>
       </c>
-      <c r="R6" s="24">
+      <c r="R6" s="22">
         <f t="shared" si="0"/>
         <v>5.11039717786387E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:102" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:102" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>80</v>
       </c>
       <c r="W7" s="22"/>
     </row>
-    <row r="8" spans="1:102" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:102" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
@@ -1226,8 +1268,8 @@
         <v>774.69899999999996</v>
       </c>
       <c r="S8" s="2">
-        <f>S4/(1-R6)</f>
-        <v>787.75753904369901</v>
+        <f>SUM(S4:S5)</f>
+        <v>828.70899999999995</v>
       </c>
       <c r="V8" s="9" t="s">
         <v>76</v>
@@ -1249,310 +1291,310 @@
       </c>
       <c r="AA8" s="9">
         <f t="shared" ref="AA8:AH8" si="1">Z8*(1+$W$21)</f>
-        <v>3423.9165800000001</v>
+        <v>3732.6303700000003</v>
       </c>
       <c r="AB8" s="9">
         <f t="shared" si="1"/>
-        <v>4177.1782276000004</v>
+        <v>4964.3983921000008</v>
       </c>
       <c r="AC8" s="9">
         <f t="shared" si="1"/>
-        <v>5096.157437672</v>
+        <v>6602.6498614930015</v>
       </c>
       <c r="AD8" s="9">
         <f t="shared" si="1"/>
-        <v>6217.3120739598398</v>
+        <v>8781.524315785693</v>
       </c>
       <c r="AE8" s="9">
         <f t="shared" si="1"/>
-        <v>7585.120730231004</v>
+        <v>11679.427339994972</v>
       </c>
       <c r="AF8" s="9">
         <f t="shared" si="1"/>
-        <v>9253.8472908818239</v>
+        <v>15533.638362193315</v>
       </c>
       <c r="AG8" s="9">
         <f t="shared" si="1"/>
-        <v>11289.693694875825</v>
+        <v>20659.739021717109</v>
       </c>
       <c r="AH8" s="9">
         <f t="shared" si="1"/>
-        <v>13773.426307748507</v>
+        <v>27477.452898883756</v>
       </c>
       <c r="AI8" s="9">
         <f t="shared" ref="AI8:BN8" si="2">AH8*(1+$W$22)</f>
-        <v>13911.160570825992</v>
+        <v>27752.227427872593</v>
       </c>
       <c r="AJ8" s="9">
         <f t="shared" si="2"/>
-        <v>14050.272176534252</v>
+        <v>28029.749702151319</v>
       </c>
       <c r="AK8" s="9">
         <f t="shared" si="2"/>
-        <v>14190.774898299594</v>
+        <v>28310.047199172834</v>
       </c>
       <c r="AL8" s="9">
         <f t="shared" si="2"/>
-        <v>14332.682647282591</v>
+        <v>28593.147671164563</v>
       </c>
       <c r="AM8" s="9">
         <f t="shared" si="2"/>
-        <v>14476.009473755417</v>
+        <v>28879.079147876208</v>
       </c>
       <c r="AN8" s="9">
         <f t="shared" si="2"/>
-        <v>14620.769568492971</v>
+        <v>29167.869939354969</v>
       </c>
       <c r="AO8" s="9">
         <f t="shared" si="2"/>
-        <v>14766.977264177902</v>
+        <v>29459.548638748518</v>
       </c>
       <c r="AP8" s="9">
         <f t="shared" si="2"/>
-        <v>14914.647036819681</v>
+        <v>29754.144125136005</v>
       </c>
       <c r="AQ8" s="9">
         <f t="shared" si="2"/>
-        <v>15063.793507187878</v>
+        <v>30051.685566387365</v>
       </c>
       <c r="AR8" s="9">
         <f t="shared" si="2"/>
-        <v>15214.431442259756</v>
+        <v>30352.202422051239</v>
       </c>
       <c r="AS8" s="9">
         <f t="shared" si="2"/>
-        <v>15366.575756682354</v>
+        <v>30655.724446271754</v>
       </c>
       <c r="AT8" s="9">
         <f t="shared" si="2"/>
-        <v>15520.241514249177</v>
+        <v>30962.281690734471</v>
       </c>
       <c r="AU8" s="9">
         <f t="shared" si="2"/>
-        <v>15675.443929391669</v>
+        <v>31271.904507641815</v>
       </c>
       <c r="AV8" s="9">
         <f t="shared" si="2"/>
-        <v>15832.198368685586</v>
+        <v>31584.623552718233</v>
       </c>
       <c r="AW8" s="9">
         <f t="shared" si="2"/>
-        <v>15990.520352372441</v>
+        <v>31900.469788245417</v>
       </c>
       <c r="AX8" s="9">
         <f t="shared" si="2"/>
-        <v>16150.425555896165</v>
+        <v>32219.47448612787</v>
       </c>
       <c r="AY8" s="9">
         <f t="shared" si="2"/>
-        <v>16311.929811455127</v>
+        <v>32541.669230989148</v>
       </c>
       <c r="AZ8" s="9">
         <f t="shared" si="2"/>
-        <v>16475.049109569678</v>
+        <v>32867.085923299041</v>
       </c>
       <c r="BA8" s="9">
         <f t="shared" si="2"/>
-        <v>16639.799600665374</v>
+        <v>33195.756782532029</v>
       </c>
       <c r="BB8" s="9">
         <f t="shared" si="2"/>
-        <v>16806.197596672027</v>
+        <v>33527.714350357353</v>
       </c>
       <c r="BC8" s="9">
         <f t="shared" si="2"/>
-        <v>16974.259572638748</v>
+        <v>33862.991493860929</v>
       </c>
       <c r="BD8" s="9">
         <f t="shared" si="2"/>
-        <v>17144.002168365136</v>
+        <v>34201.621408799539</v>
       </c>
       <c r="BE8" s="9">
         <f t="shared" si="2"/>
-        <v>17315.442190048787</v>
+        <v>34543.637622887538</v>
       </c>
       <c r="BF8" s="9">
         <f t="shared" si="2"/>
-        <v>17488.596611949273</v>
+        <v>34889.073999116416</v>
       </c>
       <c r="BG8" s="9">
         <f t="shared" si="2"/>
-        <v>17663.482578068768</v>
+        <v>35237.964739107578</v>
       </c>
       <c r="BH8" s="9">
         <f t="shared" si="2"/>
-        <v>17840.117403849457</v>
+        <v>35590.344386498655</v>
       </c>
       <c r="BI8" s="9">
         <f t="shared" si="2"/>
-        <v>18018.518577887953</v>
+        <v>35946.247830363638</v>
       </c>
       <c r="BJ8" s="9">
         <f t="shared" si="2"/>
-        <v>18198.703763666832</v>
+        <v>36305.710308667272</v>
       </c>
       <c r="BK8" s="9">
         <f t="shared" si="2"/>
-        <v>18380.690801303499</v>
+        <v>36668.767411753943</v>
       </c>
       <c r="BL8" s="9">
         <f t="shared" si="2"/>
-        <v>18564.497709316533</v>
+        <v>37035.455085871479</v>
       </c>
       <c r="BM8" s="9">
         <f t="shared" si="2"/>
-        <v>18750.142686409697</v>
+        <v>37405.809636730191</v>
       </c>
       <c r="BN8" s="9">
         <f t="shared" si="2"/>
-        <v>18937.644113273796</v>
+        <v>37779.867733097497</v>
       </c>
       <c r="BO8" s="9">
         <f t="shared" ref="BO8:CX8" si="3">BN8*(1+$W$22)</f>
-        <v>19127.020554406536</v>
+        <v>38157.666410428472</v>
       </c>
       <c r="BP8" s="9">
         <f t="shared" si="3"/>
-        <v>19318.2907599506</v>
+        <v>38539.243074532758</v>
       </c>
       <c r="BQ8" s="9">
         <f t="shared" si="3"/>
-        <v>19511.473667550104</v>
+        <v>38924.635505278085</v>
       </c>
       <c r="BR8" s="9">
         <f t="shared" si="3"/>
-        <v>19706.588404225604</v>
+        <v>39313.881860330868</v>
       </c>
       <c r="BS8" s="9">
         <f t="shared" si="3"/>
-        <v>19903.654288267859</v>
+        <v>39707.020678934176</v>
       </c>
       <c r="BT8" s="9">
         <f t="shared" si="3"/>
-        <v>20102.690831150536</v>
+        <v>40104.090885723519</v>
       </c>
       <c r="BU8" s="9">
         <f t="shared" si="3"/>
-        <v>20303.717739462041</v>
+        <v>40505.131794580753</v>
       </c>
       <c r="BV8" s="9">
         <f t="shared" si="3"/>
-        <v>20506.754916856662</v>
+        <v>40910.18311252656</v>
       </c>
       <c r="BW8" s="9">
         <f t="shared" si="3"/>
-        <v>20711.822466025227</v>
+        <v>41319.284943651823</v>
       </c>
       <c r="BX8" s="9">
         <f t="shared" si="3"/>
-        <v>20918.940690685478</v>
+        <v>41732.477793088343</v>
       </c>
       <c r="BY8" s="9">
         <f t="shared" si="3"/>
-        <v>21128.130097592333</v>
+        <v>42149.802571019223</v>
       </c>
       <c r="BZ8" s="9">
         <f t="shared" si="3"/>
-        <v>21339.411398568256</v>
+        <v>42571.300596729416</v>
       </c>
       <c r="CA8" s="9">
         <f t="shared" si="3"/>
-        <v>21552.805512553939</v>
+        <v>42997.013602696708</v>
       </c>
       <c r="CB8" s="9">
         <f t="shared" si="3"/>
-        <v>21768.333567679478</v>
+        <v>43426.983738723677</v>
       </c>
       <c r="CC8" s="9">
         <f t="shared" si="3"/>
-        <v>21986.016903356274</v>
+        <v>43861.25357611091</v>
       </c>
       <c r="CD8" s="9">
         <f t="shared" si="3"/>
-        <v>22205.877072389838</v>
+        <v>44299.866111872019</v>
       </c>
       <c r="CE8" s="9">
         <f t="shared" si="3"/>
-        <v>22427.935843113737</v>
+        <v>44742.864772990739</v>
       </c>
       <c r="CF8" s="9">
         <f t="shared" si="3"/>
-        <v>22652.215201544874</v>
+        <v>45190.293420720649</v>
       </c>
       <c r="CG8" s="9">
         <f t="shared" si="3"/>
-        <v>22878.737353560322</v>
+        <v>45642.196354927859</v>
       </c>
       <c r="CH8" s="9">
         <f t="shared" si="3"/>
-        <v>23107.524727095926</v>
+        <v>46098.618318477136</v>
       </c>
       <c r="CI8" s="9">
         <f t="shared" si="3"/>
-        <v>23338.599974366887</v>
+        <v>46559.60450166191</v>
       </c>
       <c r="CJ8" s="9">
         <f t="shared" si="3"/>
-        <v>23571.985974110557</v>
+        <v>47025.200546678527</v>
       </c>
       <c r="CK8" s="9">
         <f t="shared" si="3"/>
-        <v>23807.705833851662</v>
+        <v>47495.452552145311</v>
       </c>
       <c r="CL8" s="9">
         <f t="shared" si="3"/>
-        <v>24045.782892190178</v>
+        <v>47970.407077666765</v>
       </c>
       <c r="CM8" s="9">
         <f t="shared" si="3"/>
-        <v>24286.240721112081</v>
+        <v>48450.11114844343</v>
       </c>
       <c r="CN8" s="9">
         <f t="shared" si="3"/>
-        <v>24529.103128323201</v>
+        <v>48934.612259927868</v>
       </c>
       <c r="CO8" s="9">
         <f t="shared" si="3"/>
-        <v>24774.394159606432</v>
+        <v>49423.958382527147</v>
       </c>
       <c r="CP8" s="9">
         <f t="shared" si="3"/>
-        <v>25022.138101202498</v>
+        <v>49918.197966352418</v>
       </c>
       <c r="CQ8" s="9">
         <f t="shared" si="3"/>
-        <v>25272.359482214524</v>
+        <v>50417.379946015943</v>
       </c>
       <c r="CR8" s="9">
         <f t="shared" si="3"/>
-        <v>25525.08307703667</v>
+        <v>50921.5537454761</v>
       </c>
       <c r="CS8" s="9">
         <f t="shared" si="3"/>
-        <v>25780.333907807038</v>
+        <v>51430.769282930858</v>
       </c>
       <c r="CT8" s="9">
         <f t="shared" si="3"/>
-        <v>26038.137246885108</v>
+        <v>51945.076975760167</v>
       </c>
       <c r="CU8" s="9">
         <f t="shared" si="3"/>
-        <v>26298.518619353959</v>
+        <v>52464.527745517771</v>
       </c>
       <c r="CV8" s="9">
         <f t="shared" si="3"/>
-        <v>26561.503805547498</v>
+        <v>52989.173022972951</v>
       </c>
       <c r="CW8" s="9">
         <f t="shared" si="3"/>
-        <v>26827.118843602973</v>
+        <v>53519.064753202678</v>
       </c>
       <c r="CX8" s="9">
         <f t="shared" si="3"/>
-        <v>27095.390032039002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:102" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>54054.255400734706</v>
+      </c>
+    </row>
+    <row r="9" spans="1:102" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1617,7 +1659,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="10" spans="1:102" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:102" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1683,7 +1725,7 @@
         <v>532.89499999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:102" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:102" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
@@ -1751,58 +1793,58 @@
       </c>
       <c r="AA11" s="22">
         <f t="shared" si="6"/>
-        <v>0.22</v>
+        <v>0.33000000000000007</v>
       </c>
       <c r="AB11" s="22">
         <f t="shared" si="6"/>
-        <v>0.22000000000000008</v>
+        <v>0.33000000000000013</v>
       </c>
       <c r="AC11" s="22">
         <f t="shared" si="6"/>
-        <v>0.21999999999999989</v>
+        <v>0.33000000000000007</v>
       </c>
       <c r="AD11" s="22">
         <f t="shared" si="6"/>
-        <v>0.21999999999999997</v>
+        <v>0.33000000000000018</v>
       </c>
       <c r="AE11" s="22">
         <f t="shared" si="6"/>
-        <v>0.21999999999999992</v>
+        <v>0.33000000000000007</v>
       </c>
       <c r="AF11" s="22">
         <f t="shared" si="6"/>
-        <v>0.21999999999999986</v>
+        <v>0.33000000000000013</v>
       </c>
       <c r="AG11" s="22">
         <f t="shared" si="6"/>
-        <v>0.21999999999999995</v>
+        <v>0.33</v>
       </c>
       <c r="AH11" s="22">
         <f t="shared" si="6"/>
-        <v>0.22000000000000003</v>
+        <v>0.33000000000000007</v>
       </c>
       <c r="AI11" s="22">
         <f t="shared" si="6"/>
-        <v>1.0000000000000038E-2</v>
+        <v>9.9999999999999846E-3</v>
       </c>
       <c r="AJ11" s="22">
         <f t="shared" si="6"/>
-        <v>1.0000000000000002E-2</v>
+        <v>1.0000000000000018E-2</v>
       </c>
       <c r="AK11" s="22">
         <f t="shared" si="6"/>
-        <v>9.9999999999999881E-3</v>
+        <v>1.0000000000000049E-2</v>
       </c>
       <c r="AL11" s="22">
         <f t="shared" si="6"/>
-        <v>1.0000000000000007E-2</v>
+        <v>1.0000000000000028E-2</v>
       </c>
       <c r="AM11" s="22">
         <f t="shared" si="6"/>
-        <v>1.0000000000000057E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:102" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>9.9999999999999707E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:102" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1854,7 +1896,7 @@
         <v>364.476</v>
       </c>
     </row>
-    <row r="13" spans="1:102" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:102" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1906,7 +1948,7 @@
         <v>82.102000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:102" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:102" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
@@ -1972,7 +2014,7 @@
         <v>808.4</v>
       </c>
     </row>
-    <row r="15" spans="1:102" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:102" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
@@ -2038,7 +2080,7 @@
         <v>-275.505</v>
       </c>
     </row>
-    <row r="16" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:102" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
@@ -2101,7 +2143,7 @@
         <v>53.761000000000003</v>
       </c>
     </row>
-    <row r="17" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
@@ -2167,7 +2209,7 @@
         <v>-221.744</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
@@ -2221,7 +2263,7 @@
         <v>-4.2990000000000004</v>
       </c>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
@@ -2293,7 +2335,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="2:26" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>27</v>
       </c>
@@ -2362,7 +2404,7 @@
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>1</v>
       </c>
@@ -2416,10 +2458,10 @@
         <v>66</v>
       </c>
       <c r="W21" s="17">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.2">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="O22" s="3"/>
       <c r="V22" s="16" t="s">
         <v>67</v>
@@ -2431,7 +2473,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
         <v>54</v>
       </c>
@@ -2495,7 +2537,7 @@
       </c>
       <c r="S23" s="15">
         <f>(S8-R8)/R8</f>
-        <v>1.6856274557859319E-2</v>
+        <v>6.9717399919194414E-2</v>
       </c>
       <c r="V23" s="16" t="s">
         <v>68</v>
@@ -2504,7 +2546,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="24" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>32</v>
       </c>
@@ -2559,17 +2601,17 @@
       </c>
       <c r="S24" s="12">
         <f>+S8/N8-1</f>
-        <v>0.33742188451797039</v>
+        <v>0.40694756643328089</v>
       </c>
       <c r="V24" s="16" t="s">
         <v>69</v>
       </c>
       <c r="W24" s="18">
         <f>NPV(W23,W8:CX8)</f>
-        <v>67742.122544963786</v>
-      </c>
-    </row>
-    <row r="25" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>120385.81886131084</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>33</v>
       </c>
@@ -2642,7 +2684,7 @@
         <v>331.07900000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -2665,10 +2707,10 @@
       </c>
       <c r="W26" s="20">
         <f>W24/W25</f>
-        <v>204.6101460526454</v>
-      </c>
-    </row>
-    <row r="27" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>363.6165956201113</v>
+      </c>
+    </row>
+    <row r="27" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
@@ -2692,10 +2734,10 @@
       </c>
       <c r="W27" s="23">
         <f>(W26-Main!M2)/Main!M2</f>
-        <v>8.6733301745514149E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1.2158232517983627</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>40</v>
       </c>
@@ -2718,10 +2760,10 @@
       </c>
       <c r="W28" s="21">
         <f>W25*W26</f>
-        <v>67742.122544963786</v>
-      </c>
-    </row>
-    <row r="29" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>120385.81886131084</v>
+      </c>
+    </row>
+    <row r="29" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>38</v>
       </c>
@@ -2741,7 +2783,7 @@
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
     </row>
-    <row r="30" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>39</v>
       </c>
@@ -2760,7 +2802,7 @@
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
@@ -2783,7 +2825,7 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>36</v>
       </c>
@@ -2806,7 +2848,7 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
     </row>
-    <row r="33" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
@@ -2826,7 +2868,7 @@
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
     </row>
-    <row r="34" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>34</v>
       </c>
@@ -2845,7 +2887,7 @@
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
     </row>
-    <row r="35" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>41</v>
       </c>
@@ -2869,7 +2911,7 @@
       <c r="Q35"/>
       <c r="R35"/>
     </row>
-    <row r="36" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2888,7 +2930,7 @@
       <c r="Q36"/>
       <c r="R36"/>
     </row>
-    <row r="37" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>42</v>
       </c>
@@ -2908,7 +2950,7 @@
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
     </row>
-    <row r="38" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>43</v>
       </c>
@@ -2927,7 +2969,7 @@
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
     </row>
-    <row r="39" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>46</v>
       </c>
@@ -2946,7 +2988,7 @@
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
     </row>
-    <row r="40" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>47</v>
       </c>
@@ -2965,7 +3007,7 @@
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
     </row>
-    <row r="41" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>38</v>
       </c>
@@ -2984,7 +3026,7 @@
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
     </row>
-    <row r="42" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>48</v>
       </c>
@@ -3003,7 +3045,7 @@
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
     </row>
-    <row r="43" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>49</v>
       </c>
@@ -3022,7 +3064,7 @@
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
     </row>
-    <row r="44" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>49</v>
       </c>
@@ -3041,7 +3083,7 @@
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>50</v>
       </c>
@@ -3064,7 +3106,7 @@
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>51</v>
       </c>
@@ -3087,7 +3129,7 @@
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>45</v>
       </c>
@@ -3111,7 +3153,7 @@
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>44</v>
       </c>
@@ -3142,5 +3184,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>